--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="shine" sheetId="1" r:id="rId1"/>
     <sheet name="indeed" sheetId="2" r:id="rId2"/>
+    <sheet name="Times Jobs" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="274">
   <si>
     <t>Job Title</t>
   </si>
@@ -149,7 +150,7 @@
     <t>Tricon Infotech Pvt. Ltd.</t>
   </si>
   <si>
-    <t>not provided in dashboard</t>
+    <t>-</t>
   </si>
   <si>
     <t>Bangalore</t>
@@ -414,37 +415,37 @@
     <t>Java Developers - Freshers</t>
   </si>
   <si>
+    <t>Java Developer</t>
+  </si>
+  <si>
+    <t>Java Internship Program - [Freshers]</t>
+  </si>
+  <si>
+    <t>SE Specialist - Java</t>
+  </si>
+  <si>
+    <t>Software Engr II</t>
+  </si>
+  <si>
     <t>Java Freshers</t>
   </si>
   <si>
-    <t>SE Specialist - Java</t>
-  </si>
-  <si>
-    <t>Java Internship Program - [Freshers]</t>
-  </si>
-  <si>
-    <t>Software Engr II</t>
+    <t>Java Developers/Leads</t>
+  </si>
+  <si>
+    <t>JAVA DEVELOPER</t>
+  </si>
+  <si>
+    <t>Java Intern</t>
   </si>
   <si>
     <t>Java / J2EE - Architecture</t>
   </si>
   <si>
-    <t>Java Intern</t>
-  </si>
-  <si>
-    <t>JAVA DEVELOPER</t>
-  </si>
-  <si>
-    <t>Java Developer</t>
-  </si>
-  <si>
-    <t>Python/ Machine Learning Internships - B.E/B.Tech ( Pursuing...</t>
-  </si>
-  <si>
-    <t>Java Software Consultant for a Multi-national</t>
-  </si>
-  <si>
-    <t>Software Engineer, Principal</t>
+    <t>Principal Software Engineer</t>
+  </si>
+  <si>
+    <t>Tech Lead - Java Development</t>
   </si>
   <si>
     <t>Manager - Java Development</t>
@@ -462,43 +463,40 @@
     <t>BigSpire Software</t>
   </si>
   <si>
+    <t>Varnaaz Technologies</t>
+  </si>
+  <si>
+    <t>Fennec Technologies</t>
+  </si>
+  <si>
+    <t>Société Générale</t>
+  </si>
+  <si>
+    <t>Honeywell</t>
+  </si>
+  <si>
     <t>Chegus Infotech</t>
   </si>
   <si>
-    <t>Société Générale</t>
-  </si>
-  <si>
-    <t>Fennec Technologies</t>
-  </si>
-  <si>
-    <t>Honeywell</t>
+    <t>Careator Technologies</t>
+  </si>
+  <si>
+    <t>CGI</t>
+  </si>
+  <si>
+    <t>InstaSafe</t>
   </si>
   <si>
     <t>Zycus</t>
   </si>
   <si>
-    <t>Keyfalcon Solutions</t>
-  </si>
-  <si>
-    <t>InstaSafe</t>
-  </si>
-  <si>
-    <t>CGI</t>
-  </si>
-  <si>
-    <t>Varnaaz Technologies</t>
-  </si>
-  <si>
-    <t>TechCiti Technologies Private Limited</t>
-  </si>
-  <si>
-    <t>MWi India Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Epsilon India</t>
+    <t>Shaw Academy</t>
   </si>
   <si>
     <t>State Street</t>
+  </si>
+  <si>
+    <t>Infosys Limited</t>
   </si>
   <si>
     <t>Bengaluru, Karnataka</t>
@@ -518,28 +516,27 @@
 Qualifications: Any Degree with Computer Background.</t>
   </si>
   <si>
+    <t>Produce highly usable systems that are high performance, easy to maintain and engineered to meet business needs.
+Knowledge in business model VOIP/IPTV/Data.</t>
+  </si>
+  <si>
+    <t>Fennec Technologies offers 4-6 months Java Internship program for freshers and last semester students.
+Java (Core and advanced) and J2ee Projects.</t>
+  </si>
+  <si>
+    <t>SG GSC possesses in-depth understanding of the business processes and cutting-edge technologies across domains of Societe Generale’s diverse portfolio.</t>
+  </si>
+  <si>
+    <t>Design solutions to drive safe living and quality of life.
+Be part of a team that designs, develops and integrates highly complex software functions within…</t>
+  </si>
+  <si>
     <t>Applicant should have knowledge in the following technical skills.
 Strong OO programming knowledge, ability to incorporate in practice various software design &amp;…</t>
   </si>
   <si>
-    <t>SG GSC possesses in-depth understanding of the business processes and cutting-edge technologies across domains of Societe Generale’s diverse portfolio.</t>
-  </si>
-  <si>
-    <t>Fennec Technologies offers 4-6 months Java Internship program for freshers and last semester students.
-Java (Core and advanced) and J2ee Projects.</t>
-  </si>
-  <si>
-    <t>Design solutions to drive safe living and quality of life.
-Be part of a team that designs, develops and integrates highly complex software functions within…</t>
-  </si>
-  <si>
-    <t>Headquartered in Princeton, U.S. in 1998, Zycus has grown every day to be established as an organization which now is a leading global provider of complete…</t>
-  </si>
-  <si>
-    <t>7)Knows the business rules and concepts, software specifications and designs provided by the technical lead and apply them in completing the assigned task.</t>
-  </si>
-  <si>
-    <t>At InstaSafe, we are revolutionising the information security industry by developing a state-of-the-art Security-as-a-Service platform making it simple and easy…</t>
+    <t>Mandatory Skills: java 1.8 or 8 version ,API ( REST or Web).
+Relevant Experience: java 1.8 or 8 version at least 2 to 3 years / API ( REST or Web) 2 to 4 years’…</t>
   </si>
   <si>
     <t>CGI is hiring for JAVA Developer for Bangalore location.
@@ -547,20 +544,23 @@
 Years of Experience- 3 yrs to 10 yrs.</t>
   </si>
   <si>
-    <t>Produce highly usable systems that are high performance, easy to maintain and engineered to meet business needs.
-Knowledge in business model VOIP/IPTV/Data.</t>
-  </si>
-  <si>
-    <t>We are providing Software development Internship with Training to all Pursuing Students.
-BE/BTECH (CSE/ISE/ECE/IT/EEE) Pursuing Students (any batch).</t>
-  </si>
-  <si>
-    <t>Will be part of the Project Team involved in development of new software or enhancement of existing software.
-The role demands end-to-end responsibility.</t>
-  </si>
-  <si>
-    <t>To know more about us, please visithttps://india.epsilon.com and follow us onFacebook,Twitter,LinkedIn, andInstagram.
-How did we get this far?</t>
+    <t>At InstaSafe, we are revolutionising the information security industry by developing a state-of-the-art Security-as-a-Service platform making it simple and easy…</t>
+  </si>
+  <si>
+    <t>Headquartered in Princeton, U.S. in 1998, Zycus has grown every day to be established as an organization which now is a leading global provider of complete…</t>
+  </si>
+  <si>
+    <t>You will implement solutions that include database schema, business logic, and some presentation layer work.
+Independently investigate, present options, review…</t>
+  </si>
+  <si>
+    <t>Java developer having 4+ experience in Java programming.
+Developer having hands on experience on Core Java and J2EE frameWorks .</t>
+  </si>
+  <si>
+    <t>Internal Title: Senior Systems Engineer.
+Skill(s): * Java, J2EE, Spring, Hibernate, Microservices.
+Location(s): Bangalore, *Bhubaneshwar, Chennai, Gurgaon,…</t>
   </si>
   <si>
     <t>Java developer having 10+ experience in Java and UI Related Technologies.
@@ -570,55 +570,360 @@
     <t>Execute the design, analysis, or evaluation of assigned projects using sound engineering principles and adhering to business standards, practices, procedures,…</t>
   </si>
   <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BKwMOZH4fgpIIWSrlpgS0tSkW3tfilVH9rzQFVfnBGL0LF-9vo0acj_8Lu0aVcpXHtdaW6_IpPcunpDMWCAr8DuAQnlaBHKsAy5_wtA2o6QPdotmOPBSyPX7Fe0YQ2DJRmxj6urKrFbl0KLq0a0kz4Wv1UF9e4mq71pGYdhrf7C1s27bYRA87N5gPwaAfnRoTnQRJVp-WuLVuOryERB7ATsu_5RDFtRQaJs_hROz64ojbjaJawsXCxgwDFetPTHR9_Hz39fv2xalaYjsC_q3qoIvk2-qUcK2AGtnEGaGgOoEu1RBIr6Fm71NoJiuG8KdOP0I2i6EcFIYYKD4yGvle8a8C5Y6Us3-Lrv7xLL57nFp1n6-vAUzmj7g5G_85jtpnL6uYrV_TUjvuigfDObcX71Z9WarW-g-1bytOjXfC0bwoToUbCpLOwf1_vRgu_Gd0emIEuu8UlAP74xaQU8UK7BZBETYOC7suodIUvHMnejA==&amp;p=0&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DUSa2A3jafxocHQLDLLcXuN9STuyedxbGwl68EprraMeRt-Kr1OZ76Ay3sNlYV_c_E0wSUL9FGidVgInl2aHuwzzONl0AaJfVvBaYyaUmeroBJSauCoaWpiCdMoHqLV7Yvvz7iikD_wnaON1WcnL9PUt5sAFEKqV9xkanQn4cd0-bkgEDZnuSgQZ6PVQlDZwUb5umh4JOOcez7x8OXwCzjwL9fliUISVxWLGf61leLftWtWx4r2K0ghzkei3PyrD7xdI_SfKjFwei9-RYy_vn3lwjma3qNNDAIcIk-0xu6Gl8UxFh_16sdSeiR8G-fwsTWSf1V8uCFai4p7JGhMNChiTtgs-MpGNAvBYEqUDCCAKLAndsM85IcwzHTHxYKmQOHH2pw9yee15Ti_htuU2bQHujxNIUfAnYc4PgBuQ58jBEFahzuXlQspQ49RtWE5yvarFOxWhAjM_7qxImNJ2BZuOBvaskt-rqTGt5Cm5olAgksYRfSl9Us&amp;p=1&amp;fvj=1&amp;vjs=3</t>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BKwMOZH4fgpIIWSrlpgS0tSkW3tfilVH9rzQFVfnBGL0LF-9vo0acj_8Lu0aVcpXHtdaW6_IpPcunpDMWCAr8DuAQnlaBHKsAy5_wtA2o6QPdotmOPBSyPX7Fe0YQ2DJRmxj6urKrFbl0KLq0a0kz4Wv1UF9e4mq4XzZTx84FvpA9zGAgdu4bWSgRQZTfgH1o0fLlxiEuijA2GaICfMkp_PPt1-EFvpa6lTlWtNU6X2n8jRierWWANffTIEtDl_wYkqSRx5hUPRfsfK-w6VxpnI7MrbKo77bKudXzloI22VnLZtLnOaOaYi-Zh3w2dWOtaw4a43jhREPqzBGNkkZQ8Fb5em8Tmbjdauy_7HxKEGFn11RjyykT5AcGGDU5zAGnGas9U-kIwXCiKHsblWX9hT7PntPBDSsLd0XjK5IjKoA--oAUaArLzxLv1_nNGwfpv9RtSkVXwALKYUfleLtU5Vk-CLk07wTJFzuxWsDQICQ==&amp;p=0&amp;fvj=0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DUSa2A3jafxocHQLDLLcXuN9STuyedxbGwl68EprraMeRt-Kr1OZ76Ay3sNlYV_c_E0wSUL9FGidVgInl2aHuwzzONl0AaJfVvBaYyaUmeroBJSauCoaWpiCdMoHqLV7Yvvz7iikD_wnaON1WcnL9PUt5sAFEKqV9xkanQn4cd0xYjMOZttZPh8YxkIt0E2_80mvPNyobxTia7UlEWo6s3Pgv5ZkHkA0EtMenkD7ZRR7sAh6ysShebyTn3nlGQrbC8X3pSr9XYEhRPj3EzPaOu9oMUTCdduNBdlmXn3Of-sdaGqF9WDjhWxwg7mpVIVoQpPGJhdtAEDl4qnZS5Hs5tWHAUqk2FDqp7PdSZAkvLRovdZmY69YSK5dSrpNVTLvkD52CtG7qWWiNxrD49Ww_Oso8KpAmcwzvUtMS3oqG8j0FfS3KIo37c2gWlj6PA6KGKkkv1F_InVjhLHhc9SaiToz9MDcME3L819OQd-dw-Yi9dyv1mWM9i&amp;p=1&amp;fvj=1&amp;vjs=3</t>
   </si>
   <si>
     <t>https://www.indeed.com/rc/clk?jk=9c41a3b220869182&amp;fccid=5c1cbf790497af17&amp;vjs=3</t>
   </si>
   <si>
+    <t>https://www.indeed.com/company/Varnaaz-Technologies/jobs/Java-Developer-ce5238e175573cc5?fccid=48b0e1c553bfe209&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=7721a250865666b9&amp;fccid=3c1bd4b28eeecdf9&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=17f9f80feec2a48e&amp;fccid=df6948c9b8da6236&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=b50bc2bdc6e79df1&amp;fccid=50208b5bf45ee3b8&amp;vjs=3</t>
+  </si>
+  <si>
     <t>https://www.indeed.com/rc/clk?jk=4a9798510f9f184e&amp;fccid=079b127d8fde03a2&amp;vjs=3</t>
   </si>
   <si>
-    <t>https://www.indeed.com/rc/clk?jk=17f9f80feec2a48e&amp;fccid=df6948c9b8da6236&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=7721a250865666b9&amp;fccid=3c1bd4b28eeecdf9&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=b50bc2bdc6e79df1&amp;fccid=50208b5bf45ee3b8&amp;vjs=3</t>
+    <t>https://www.indeed.com/rc/clk?jk=ac2600d958a9cf8c&amp;fccid=53676d5e93e90a6c&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/company/CGI/jobs/Java-Developer-03ac8d0bbc71b077?fccid=211099cf537c10a2&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=ea77245eb661ce00&amp;fccid=07146ca99e348eca&amp;vjs=3</t>
   </si>
   <si>
     <t>https://www.indeed.com/rc/clk?jk=279c5ce5a28998f5&amp;fccid=58f19afcf811541a&amp;vjs=3</t>
   </si>
   <si>
-    <t>https://www.indeed.com/rc/clk?jk=f139dcc18959cb77&amp;fccid=f0c1e70642253730&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=ea77245eb661ce00&amp;fccid=07146ca99e348eca&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/company/CGI/jobs/Java-Developer-03ac8d0bbc71b077?fccid=211099cf537c10a2&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/company/Varnaaz-Technologies/jobs/Java-Developer-ce5238e175573cc5?fccid=48b0e1c553bfe209&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0C7zxegYuOm4p-Y3xpypINpn_zgkLsA0z_ct-Rdj5ZKKjlPUYi9cCrPrIVfJlMw6SlNRPhN8taas4emjSVR3pNxb-eErrZJKY8EBEkmpexQUv4pElrAmtFJodksTCTqIUMjMXzyRF_Yl0GAS7wmoM25adbOYLCyFZAzRKOxF3JU4YJaktY_aQ3oonbA06j5wmjxoJ1hPva2bzZJNOIZQwb9W4HZyhjGb9XaHbocQ3ll5my_XYEFYONpEWp5L6LowJXPT79TQXYnO92qNwi2z8V2PQOC3yOcWfibJ6H6VTOykxo_ZnyuqnCSZVqskO9x17AmHQhQjcFLMEBGfr7BRmCPfd1KlcN3lRKklf8sfFi8GS1_uMe-54WKrkOxeE9IDQTasMTgOJldBPEFaC5rX8iHsoQJ5jNN2Ovmy348ESVAmmrtYUw3CxTvzKwbFl2DFTPBbUoNzOUy44hr9z6mnypackjPGp6HDNwKDInOlz5wAkdAdLripELAwDyH7yJrTmI=&amp;p=12&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0Br0tCqNwZUJ4PlbPuLNfz-NnFRw4YUJhOH1Rb9xuzCyqIKNzPrVJ0a1zCXewmt1MXW5ISsb94svsc_GWKGGOoDjBKNPaYpxLKsfBousHlCARBJj9OoethqKG9xUO22p1vqKMYr4eyIdfrPw1Xp7i8UT6sp0XQ0m8eluDHK7TSKu4O5k_m_r8e0iYXfcph5rzhhK-vOgr7rVoIo_gZACYL7UO33jzzonVeiQ1Gh82yXV1ftHD1urCQw2z53lRSgbQcI_-eh7oATsbsICqCCKeIg2vbK4S6oXUnTzWJNf6N0dgGp4sVm90BVUUCP9YY_gn7cb627C9nSRDYx4Hd2qfxAAwTbdmVH0vLbZes5cgGjkw-1NMj8QSH7gNJkQntDUIuQCKNQd2Rhr4IAmlpaGqqP4rZ3lGud8kb7h83m8cVjPrwaoqK3WNYNT81u35C3x19t7Gdem8HYDLhLotMnME8C&amp;p=13&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0D3zZ_ASCFyv4hXru9Ra-w9vKx6N-cVz9iFs_U0KKU9Ly96rTwWsyIpKfrmOmVujuNfJTBAhsdNY0sR5VFMFtXR4WMcr4suWhm9bZY1RSQPvgHUVdbuvAUM2TCYxNBBRLx3DWnRDz09pqDaJNdzIpDrpJJcp-SS6V0fJTp7hFJgn-duepzIjKHEdLCnLWVSk-0JcnLLyukSPguT4wP8_-XtUn0uKLkw3kuM1rO1FtKkeseJWeRLPtaxkywisV4LZlfp9UYhFXGJ1-M4R7I3uZdaOhq_xstu21peg77aTkDMvjAPQNhPwD7FAKGdozMFmZoJDa5JpjexJzKICKrc-KJn4_EhGuB6HKe-pr-Ypg499AkC1fuiH8d1Msoi-q8y1TLzSkUEGJH6Pb5Ec_J56RRRJkWJAHj6T2AEcZdeHTCUXQ==&amp;p=14&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DufbCI2HIYwgBtoz6kWO8JhBjFXIWlM4Ym8nprWE4ozyO6GilzqEnqA6v-WZbgr7lF5ZQ0BtGemWULP-NZHApiZTJZCMs8cbr1Anzw7yGWa9dXD-N9EyuxkaIKkgML_6oyr96PD_Jt3gABmvQQ0zyKtqe-LmR4EU64-o33BYreYa5UEGngNvqDEAATM4TH4mXvuFl2tEcQtaHd2kg5Xo9BYkDzIbyM7vd6x3KUZeyd5DE_BNeQD-w7p56zenxt8FJMeUtZnidolvFAiT8YIkJjOI1K9CT367sV3iaXuctoc4S4H9ROJrQJvP1xaC6Y60-n52q4754chOxSWeYTC9xVaawPOHAxssjtrjfpkUjVVpfmOpwcEs2xVx2GSvWIaHjh7o8GRppTpqEycWrLVvCHHPAdjsTfjdwlE6w1zxHZDzid5lvizj8DFtiZRksdeaOTos7bzyotYALWHqpurscKjCSnTnxNP6Gse-xZIe0a7IipKjTfeQRNW0VwkJvyitOy_NZKms6DPYL7hW5JY5wW8QdSuGtLlQRQRSSnPAIVdA8PK-LdL0bSXD3KhcUg4_BE0AiqLikS6FJQpBChpP9NbrHBo3rZVdQ=&amp;p=15&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BKwMOZH4fgpIIWSrlpgS0tSkW3tfilVH9rzQFVfnBGL0LF-9vo0acj_8Lu0aVcpXEecxr-cGbZe-ZtfwA35kWTEKKmsc2GXJ4fmaJw4BivFIXkvrntpE1A-MOJZIwbRTwczkqBbsVMqZKRvq5k9Yzpk9zfduTSHcfAB7sWgg5vrw8KO7V7PTqMdRJN04SEQyOXtxYRaMjj6YfW9v0Vg2a7h8T82HJsoosdqAUrOyoeFEydQbk9B38zaxG-bZVQyWm6hTEjJ1TiSLzVbU1OCa-DFeq03v4uoTMxkJaS-JMRygDY5w1KKHXdGs3IyxmoTXmim2o3_37vLO0_5d3d_UA_vCQwChJ0ypFvGri2YAoVNW0UGY9a8OBAKk5Z8VnbFOvJQgp0iuQt3JcjTNA-40OeQWcwk3t3PofhHzuNQwmXVDQnjnBiLwwJZObepgw_jEsBA8myZ4Hhmmn8VEcGAuIvogSSAXSyHZs=&amp;p=16&amp;fvj=0&amp;vjs=3</t>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0CNc4hWJXeDZ3ZXnFcr2J1Wj0e9JtA8O3MaJxzvzfN419lYGI_iL7OtM1wDMyM9EJMLM6uLeeRmphEyI68rn_vjL65ppqXMTcm-8FVcV-IumuN21HDg4hIaC2IZur0P--1q1Sn8mbFcSkEL7GA7ozXYe4lXcYUgv4KAGbRFV1k8C2f2Y-h61tjvtARhNAsVbFPjkBXLoM7JrcIr33jpoWglZsOiwdO38_D4fkV2zT8L_CnY6p5rPOsV-ImDGA3EdhBSrvpk437N8LZE9F-rjxJJrIuoTMcHJ9SxqGJmA3y6KsQ6Dqzmw_htRWJgC1zIscIqvmmIaPRtDDbEBZCw4tTdI0cBUpAngTzREUx4K7vp8MOUMPW3_CvaWlsvyMsN7S9BGyo-2A7HA0iVVBIPn97egFNV3VAsWsTaftS5QkQLZvLzO3aaR4iMrnX1VfyQ9eCGIaNAacgduY65qen3PCPj&amp;p=12&amp;fvj=1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DufbCI2HIYwgBtoz6kWO8JhBjFXIWlM4Ym8nprWE4ozyO6GilzqEnqA6v-WZbgr7lF5ZQ0BtGemSfXrO_EfUkIONh2N-KeDEoSx3Ic7AvaCPsptAtul6PitmVlzRUq-VrfR-1NuoBeyYyqj55yjpcJeViL6fuHAfCpSeoJgA7qT25drwJxGY-5HP5qJQH1vT4Y1mcofc6qwDesyu3shX9BEGLeg-jAlCd56-LMWhJlqswvDCkeE9trh4EQX6bOrai80WLZTeVrtBsmCel5SjMWjdVoYvoLZPK389tb4vyV9feRNNYwTIIJlpyaphHqgyj0aVpVXTfrlywou1fYQe1I7XciPzU3zuOv7yu_ZyIaJYoxHM5FnGQ9iLUlEKPrmJm8cEXrA_FsKgzezupXeOqwvwpuqW97KsWfzvVPTECY3pwKwUFUdaK1c9qghHduNeBvarXp5vwrXcwriMwu_3KnrKOf6TlPOcdUEuUJGTKZnohsNsl240LFMcXZGwXxuqGgWfjHyLoqsym1oNJ0Eg6Sew8Ems3D_5T0sM6o2smWzpdcesKzG-KxxvxZDIfES7SFeZbk6z6gXl5RdTpTOhEUfgGGkv9AlLo=&amp;p=13&amp;fvj=0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DFi1nmQQWK2fa3N4W3y7EUOEocZkWPqKP_f_xZ7ne8RUTCgxjAcFcNO0xqLvH83iiV9mHQf9kDK_xK06IcIYlUSkmnCph443TwffdBLyaC1gkZ-txSi65KXKu5nFLUxgHbHRrpoUff44QT1A8KyLhhh8OOu2B2O02Y67rfUn1WHJ0D44_lUdLU_D7JWKZWY4Qfl6RNhpHwQU4oycZbPA_o5z366Er6xxerOWHVUEBOxgwuSqGXKXlU8GcMLgMh9px5x_4VUx4Zm3rONvElTKvA6_lMmbIZapWud6D5bk7XECRy3c6iTkE_KG3Q5gDhgFqSlIApwjYLrjrccv7-n6RhgBzDuRV6gwXJSEhgLgMw72UYRPIvOUgC3LM4U9KCnYG4JM4PM-fr1ORjqXIDX1wuItnOOMhPBRgjEw5PZU15Z0vP2jCm1uqi3NkAaO4raZiloJ92UCfGKLTq6HPABmA9-Agdz1sk8BvAMwyAI7KeIiecp8SWPa5l07AYcecJ1QyYJ7gw7asPjfYmwHGPQFsuavgZWb2IX3VGtj425nv2yYGVWUMF9EqX9xuZo8ru_5NqXLyKNIPQ1LPYj0Q5Kz3Yp2sMNd_2oriB4CQcIze8pSIurhTAp51ER3CXBembZnTbCtkZD3DfUalGl_jtWgPT&amp;p=14&amp;fvj=1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DufbCI2HIYwgBtoz6kWO8JhBjFXIWlM4Ym8nprWE4ozyO6GilzqEnqA6v-WZbgr7lF5ZQ0BtGemWULP-NZHApiZTJZCMs8cbr1Anzw7yGWa9dXD-N9EyuxkaIKkgML_6oyr96PD_Jt3gABmvQQ0zyKGzwnO5ogPBV0c3QgS1bAeBqvarq05AfMFDd05k3pfJilNM8vtlbB4IoY9JPALnM62-9TaF5sZ-L3lHrjE5fOKQPUlZ71Gy9UO0KtJqluKH0ico-weF8cjK150A56U3LXw7GM-m0-PcUUBN2C9ykWHoim1BjqdBRyuA9cs--83bFOs0VXP7sC06ZLcbTx2uIU57JVNmBJhkWjuQvhsCMsa0SlNP4J-fh5UKNBVSbtqRB4J1LkXGAjFzrTGG8eYn4vgajLOT0s4sSgpzvUzZ6O86iAis_5JNPo6ou9kvKsvEuP9Z_aiMgtpY4WfNlthWtZP52uexbypVkA1aV9kUcQV5loS43kdCxMJ1gmt-01zj5keKsOL4rfCUzmQeVks91DSR5k5TqWABL7mnMBbP_aKv8IYDPzkNUFuWshGQeeg-PR67C58weT3Onkrys-qXLv8zYERXfpCqg=&amp;p=15&amp;fvj=0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BKwMOZH4fgpIIWSrlpgS0tSkW3tfilVH9rzQFVfnBGL0LF-9vo0acj_8Lu0aVcpXEecxr-cGbZe-ZtfwA35kWTEKKmsc2GXJ4fmaJw4BivFIXkvrntpE1A-MOJZIwbRTwczkqBbsVMqZKRvq5k9Yzpk9zfduTSHcdC86ycx7LGh_P2RB5YbWJdozgapF2xB0aai_BtOdS9mP-sZJrYrcPzRaC35GP_YE2pLznYQFvgxPgOtpENq_pkSes4tHrYQVTpRxWGs9utSA4IeoRH3iItkTn9_jSGx6o-ehv3dlVzOqqtFV27MvPvy_AWli3bELiqn0nttbp4kTK8Fe_0lTyOOFKI1c-Fq6Vwf85OChWMcmBpXSTilfWAQJZvbAPGlEsuiPgHU3dPpBRXl_NcUuDg4uYHsrWYN5kot8hVcCIyj9vDDS-EL96Kyn5ob3ZLB0ruGL_QK4OTeyXK3dyuoxlRtx9PRuu7O-I=&amp;p=16&amp;fvj=0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>JAVA</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>Logic Heart</t>
+  </si>
+  <si>
+    <t>PRATHIGNA BUILDTECH PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>Bloom Consulting Services</t>
+  </si>
+  <si>
+    <t>TECHS TO SUIT INC</t>
+  </si>
+  <si>
+    <t>Augusta Infotech</t>
+  </si>
+  <si>
+    <t>TAURUS HARD SOFT SOLUTIONS</t>
+  </si>
+  <si>
+    <t>infortecor solutions pvt ltd</t>
+  </si>
+  <si>
+    <t>test and verification solutions</t>
+  </si>
+  <si>
+    <t>I2SOFT TECHNOLOGIES</t>
+  </si>
+  <si>
+    <t>HR DEVI AND ASSOCIATES</t>
+  </si>
+  <si>
+    <t>Pentagon Consultancy Services  ( PCS )</t>
+  </si>
+  <si>
+    <t>HyreFox Consultants</t>
+  </si>
+  <si>
+    <t>CRPL - INDIA</t>
+  </si>
+  <si>
+    <t>menorah personnel management india pvt ltd</t>
+  </si>
+  <si>
+    <t>Meteonic Innovation</t>
+  </si>
+  <si>
+    <t>coralhire technologies pvt. ltd</t>
+  </si>
+  <si>
+    <t>VARITE INDIA PVT LTD</t>
+  </si>
+  <si>
+    <t>spring  ,  spring boot  ,  rest  ,  java  ,  rest api  ,  java ee  ,  j2ee  ,  hibernate  ,  hibernate framework</t>
+  </si>
+  <si>
+    <t>spring framework  ,  java  ,  spring security  ,  j2ee  ,  angularjs  ,  javascript  ,  jquery  ,  ionic framework</t>
+  </si>
+  <si>
+    <t>rest api  ,  hibernate  ,  messaging  ,  sql  ,  spring  ,  java  ,  wsdl  ,  xml  ,  unix  /  linux  ,  soap</t>
+  </si>
+  <si>
+    <t>python  ,  junit  ,  ant  ,  maven  ,  windows  ,  fx  ,  swing  ,  java  ,  git  ,  jtest  ,  linux  ,  telecom  ,  javafx  ,  software developer</t>
+  </si>
+  <si>
+    <t>object oriented analysis  ,  mentor  ,  technical leadership  ,  application design  ,  database design  ,  java  ,  technology management  ,  uml  ,  design patterns  ,  system development  ,  data structures  ,  client server  ,  mentoring  ,  application development  ,  system architecture  ,  ooad</t>
+  </si>
+  <si>
+    <t>java  ,  java programming  ,  java developer</t>
+  </si>
+  <si>
+    <t>spring  ,  spring framework  ,  java  ,  aop  ,  web technologies  ,  j2ee  ,  object oriented programming  ,  jsf  ,  java programming  ,  java developer</t>
+  </si>
+  <si>
+    <t>java  ,  java developer</t>
+  </si>
+  <si>
+    <t>rest  ,  rdbms  ,  hibernate  ,  java developer  ,  spring  ,  java  ,  j2ee  ,  soap  ,  middleware</t>
+  </si>
+  <si>
+    <t>rest  ,  oracle  ,  hibernate  ,  java developer  ,  spring boot  ,  database  ,  java  ,  database programming  ,  git  ,  spring mvc  ,  j2ee  ,  debugging</t>
+  </si>
+  <si>
+    <t>spring  ,  spring framework  ,  java  ,  rdbms  ,  postgresql  ,  j2ee  ,  hibernate  ,  java developer</t>
+  </si>
+  <si>
+    <t>spring  ,  java  ,  j2ee  ,  mysql  ,  hibernate  ,  java developer</t>
+  </si>
+  <si>
+    <t>hibernate  ,  java developer  ,  docker  ,  spring  ,  database  ,  security  ,  java  ,  xml  ,  j2ee  ,  mysql  ,  html  ,  mongodb</t>
+  </si>
+  <si>
+    <t>java  ,  rdbms</t>
+  </si>
+  <si>
+    <t>spring boot  ,  java  ,  java developer</t>
+  </si>
+  <si>
+    <t>soa  ,  spring  ,  security  ,  java  ,  linux  ,  j2ee  ,  program manager  ,  data structures  ,  object oriented programming  ,  c  ,  windows  ,  java developer  ,  messaging  ,  network management  ,  service oriented architecture  ,  sql database</t>
+  </si>
+  <si>
+    <t>spring boot  ,  java  ,  aop  ,  git  ,  written communication  ,  j2ee  ,  jee  ,  hibernate  ,  java developer</t>
+  </si>
+  <si>
+    <t>spring  ,  elastic search  ,  database  ,  java  ,  git  ,  testing tools  ,  j2ee  ,  api  ,  rest  ,  junit  ,  java developer  ,  nosql  ,  spring boot  ,  soap</t>
+  </si>
+  <si>
+    <t>rest api  ,  java developer  ,  java</t>
+  </si>
+  <si>
+    <t>rest  ,  junit  ,  rdbms  ,  oracle  ,  soa  ,  maven  ,  hibernate  ,  jquery  ,  sql  ,  eclipse  ,  spring  ,  java  ,  j2ee  ,  technical skills</t>
+  </si>
+  <si>
+    <t>rest  ,  python  ,  java developer  ,  java</t>
+  </si>
+  <si>
+    <t>fundamentals  ,  css  ,  jsp  ,  hibernate  ,  ajax  ,  jquery  ,  spring  ,  java  ,  linux  ,  j2ee  ,  html  ,  solaris  ,  c  ,  javascript  ,  java developer  ,  struts  ,  servlets</t>
+  </si>
+  <si>
+    <t>fundamentals  ,  algorithms  ,  java developer  ,  memory management  ,  java  ,  oops  ,  j2ee  ,  data structures  ,  mongodb</t>
+  </si>
+  <si>
+    <t>Job Description:_x000D_
+Job Summary: We are seeking a highly-skilled ,  experienced Java ,  Java EE developer to join our expanding development team. In this role ,  you will help develop and design ... More Details</t>
+  </si>
+  <si>
+    <t>Job Description:_x000D_
+JAVA  / JAVA SCRIPT DEVELOPER4 Years - 8 MonthsJob DescriptionLooking for Candidates with minimum of Bachelors degree. Looking for software engineers for senior  ( 4  years ) ... More Details</t>
+  </si>
+  <si>
+    <t>Job Description:_x000D_
+JAVA  / JAVA SCRIPT DEVELOPER4 Years - 5 MonthsJob DescriptionLooking for Candidates with minimum of Bachelors degree. Looking for software engineers for senior  ( 4  years ) ... More Details</t>
+  </si>
+  <si>
+    <t>Job Description:_x000D_
+About the Job  Strong In Core Java Strong Spring Experience Strong Background In Developing And Deploying Software That Runs In A Real-Time ,  Multi-Threaded Environment Worki... More Details</t>
+  </si>
+  <si>
+    <t>Job Description:_x000D_
+We have an Opening for Core java with java FX role for Bangalore location. Looking for skills:Core Java  ( key skill ,  4 / 5 proficiency /  /  JavaFX / Swing / Jface  ( Good ... More Details</t>
+  </si>
+  <si>
+    <t>Job Description:_x000D_
+Job DescriptionHiring ,  Technical Architect  / Lead in Bangalore.must skillsEducation Mandatory - B.E / B.TechOnly Bangalore based candidates will be considered for this role... More Details</t>
+  </si>
+  <si>
+    <t>Job Description:_x000D_
+Company Description Taurus Hard Soft Solutions Pvt LtdJob Description We are Looking for an exciting Candidate who has a strong background as a Java Developer and Creates user... More Details</t>
+  </si>
+  <si>
+    <t>Job Description:_x000D_
+Title Java Developer Exp 1-4yrs Categories Salary Best in the industry Start Location Bangalore Job Information Object Oriented Programming in Java   J2EE Frameworks like Spri... More Details</t>
+  </si>
+  <si>
+    <t>Job Description:_x000D_
+JD913 - Java Developer Key Skills : Core Java ,  Spring ,  Hibernate ,  JAX-RS  ( REST )  ,  JMS ,  RDBMS  ,  Angular JS  , Java / J2EEExp : 5 - 9 Sal : Loc : BangaloreClient ... More Details</t>
+  </si>
+  <si>
+    <t>Job Description:_x000D_
+Job Title:Java DeveloperJob Code:SWDIND050418_04Job Description Java- J2EE  ,  Hibernate ,  Spring MVC frameworkSpring BootReact JS / NativeMongo DBREST service development in... More Details</t>
+  </si>
+  <si>
+    <t>Job Description:_x000D_
+Java Developer3 Years - 5 MonthsJob Description3 to 5 years of Coding Experience in JAVA ,  J2EE ,  SPRING ,  HIBERNATE ,  COLLECTIONS.  Experience with RDBMS preferably Postg... More Details</t>
+  </si>
+  <si>
+    <t>Job Description:_x000D_
+Java DeveloperJob Code : I2S-JD-17 / 11Experience : 0 - 1 yearKeyskills: Core Java ,  J2EE ,  Webservices ,  Spring ,  Hibernate ,  Java Script ,  MySQL.Location : BangaloreAp... More Details</t>
+  </si>
+  <si>
+    <t>Job Description:_x000D_
+Java Developer2 - 6 YearsBangaloreJob DescriptionRequired Skills:java ,  J2ee ,  Spring ,  Hibernatemysql ,  Mongodb ,  Database Schema Designandroid ,  Xmljob Specifications:... More Details</t>
+  </si>
+  <si>
+    <t>Job Description:_x000D_
+Designation : Java Architectures ( 8  yrs ) Experience : 8  yrsLocation : Bangalore ,  Chennai ,  Pune ,  Hyderabad , KolkataSalary : Market StandardsClient Name : MNCEducatio... More Details</t>
+  </si>
+  <si>
+    <t>Job Description:_x000D_
+Job Description:Experience in JAVA  ( 5  Years ) ; Spring Boot  ( 1.5 years )  implementation.Preferred experience in Pivotal Cloud Foundry ( PCF ) .Other Details Industry: IT... More Details</t>
+  </si>
+  <si>
+    <t>Job Description:_x000D_
+Java DeveloperCorporate ResourcesLocation : Bengaluru  /  BangaloreExperience : 1 to 4 Year ( s )  Not Disclosed by RecruiterJob Description Send me jobs like thisQualificatio... More Details</t>
+  </si>
+  <si>
+    <t>Job Description:_x000D_
+Looking for Java Developer - in a Leading Product  &amp;  Service based company.!!! Menorah Personnel Management India Private Ltd 2 BangaloreKeyskills :*Java *J2EE *Spring Boot /... More Details</t>
+  </si>
+  <si>
+    <t>Job Description:_x000D_
+Job Requirements: 5  years of experience in Software Development5   or more years of extensive experience in Java  /  J2Ee ,  Spring ,  Spring Boot developing complex enterpri... More Details</t>
+  </si>
+  <si>
+    <t>Job Description:_x000D_
+JD1133 - Java Developer Key Skills : Core Java ,  Rest API candidates willing to Work in ClojureExp : 3 - 9 Sal : Loc : BangaloreClient of Bloom Consulting ServicesAbout the J... More Details</t>
+  </si>
+  <si>
+    <t>Job Description:_x000D_
+Java Lead Technical Skills Minimum 6 to 8 years of Java  /  J2EE integration technologies and frameworks ,  experience involving all the phases of software development life cy... More Details</t>
+  </si>
+  <si>
+    <t>Job Description:_x000D_
+Java Developer Req I D NU_Java DeveloperRate DOEPrimary Skills Java and PythonDescriptionLocation: Bellandur BangaloreDescription:Developer is responsible for building a web a... More Details</t>
+  </si>
+  <si>
+    <t>Job Description:_x000D_
+JAVA DEVELOPERCorporate ResourcesLocation : Bengaluru  /  BangaloreExperience : 1 to 3 Year ( s )  200000 - 400000  ( Per Annual ) Strong in core Java / J2EE fundamentals Good... More Details</t>
+  </si>
+  <si>
+    <t>Job Description:_x000D_
+About the Job Job Description:We are looking for a proficient candidate in Java / J2EE ,  SpringMVC ,  MongoDB ,  Microservices. Excellent understanding of computer science fu... More Details</t>
+  </si>
+  <si>
+    <t>1 - 5</t>
+  </si>
+  <si>
+    <t>4 - 7</t>
+  </si>
+  <si>
+    <t>0 - 3</t>
+  </si>
+  <si>
+    <t>8 - 10</t>
+  </si>
+  <si>
+    <t>1 - 6</t>
+  </si>
+  <si>
+    <t>3 - 6</t>
+  </si>
+  <si>
+    <t>1 - 4</t>
+  </si>
+  <si>
+    <t>3 - 5</t>
+  </si>
+  <si>
+    <t>0 - 1</t>
+  </si>
+  <si>
+    <t>2 - 6</t>
+  </si>
+  <si>
+    <t>8 - 11</t>
+  </si>
+  <si>
+    <t>5 - 8</t>
+  </si>
+  <si>
+    <t>2 - 5</t>
+  </si>
+  <si>
+    <t>6 - 8</t>
+  </si>
+  <si>
+    <t>1 - 3</t>
+  </si>
+  <si>
+    <t>https://www.timesjobs.com/job-detail/java-java-ee-developer-logic-heart-bengaluru-bangalore-1-5yrs-jobid-yB99IgViFL5zpSvf__PLUS__uAgZw==-key-java-loc-198130&amp;amp;source=srp</t>
+  </si>
+  <si>
+    <t>https://www.timesjobs.com/job-detail/java-java-script-developer-prathigna-buildtech-private-limited-bengaluru-bangalore-4-7yrs-jobid-lL__SLASH__qH1Xzz5xzpSvf__PLUS__uAgZw==-key-java-loc-198130&amp;amp;source=srp</t>
+  </si>
+  <si>
+    <t>https://www.timesjobs.com/job-detail/java-java-script-developer-prathigna-buildtech-private-limited-bengaluru-bangalore-4-7yrs-jobid-36IbJuYJe__SLASH__5zpSvf__PLUS__uAgZw==-key-java-loc-198130&amp;amp;source=srp</t>
+  </si>
+  <si>
+    <t>https://www.timesjobs.com/job-detail/java-developers-core-java-bloom-consulting-services-bengaluru-bangalore-0-3yrs-jobid-1WolBomwRDBzpSvf__PLUS__uAgZw==-key-java-loc-198130&amp;amp;source=srp</t>
+  </si>
+  <si>
+    <t>https://www.timesjobs.com/job-detail/core-java-with-java-fx-techs-to-suit-inc-bengaluru-bangalore-4-7yrs-jobid-Lou4aVGd4idzpSvf__PLUS__uAgZw==-key-java-loc-198130&amp;amp;source=srp</t>
+  </si>
+  <si>
+    <t>https://www.timesjobs.com/job-detail/java-architect-java-lead-java-designer-augusta-infotech-bengaluru-bangalore-8-10yrs-jobid-qZvRGu__SLASH__W8qJzpSvf__PLUS__uAgZw==-key-java-loc-198130&amp;amp;source=srp</t>
+  </si>
+  <si>
+    <t>https://www.timesjobs.com/job-detail/java-developer-taurus-hard-soft-solutions-bengaluru-bangalore-1-6yrs-jobid-A6Sfc8uInNtzpSvf__PLUS__uAgZw==-key-java-loc-198130&amp;amp;source=srp</t>
+  </si>
+  <si>
+    <t>https://www.timesjobs.com/job-detail/java-developer-infortecor-solutions-pvt-ltd-bengaluru-bangalore-3-6yrs-jobid-5zthchuqt6lzpSvf__PLUS__uAgZw==-key-java-loc-198130&amp;amp;source=srp</t>
+  </si>
+  <si>
+    <t>https://www.timesjobs.com/job-detail/java-developer-taurus-hard-soft-solutions-bengaluru-bangalore-1-4yrs-jobid-y3Sv7izwFQlzpSvf__PLUS__uAgZw==-key-java-loc-198130&amp;amp;source=srp</t>
+  </si>
+  <si>
+    <t>https://www.timesjobs.com/job-detail/java-developer-taurus-hard-soft-solutions-bengaluru-bangalore-1-4yrs-jobid-3jMmF9xEnihzpSvf__PLUS__uAgZw==-key-java-loc-198130&amp;amp;source=srp</t>
+  </si>
+  <si>
+    <t>https://www.timesjobs.com/job-detail/java-developer-bloom-consulting-services-bengaluru-bangalore-0-3yrs-jobid-DnXBeaJoAZFzpSvf__PLUS__uAgZw==-key-java-loc-198130&amp;amp;source=srp</t>
+  </si>
+  <si>
+    <t>https://www.timesjobs.com/job-detail/java-developer-test-and-verification-solutions-bengaluru-bangalore-0-3yrs-jobid-TunJGKhnQ4RzpSvf__PLUS__uAgZw==-key-java-loc-198130&amp;amp;source=srp</t>
+  </si>
+  <si>
+    <t>https://www.timesjobs.com/job-detail/java-developer-prathigna-buildtech-private-limited-bengaluru-bangalore-3-5yrs-jobid-TZ2KcKgHb__SLASH__1zpSvf__PLUS__uAgZw==-key-java-loc-198130&amp;amp;source=srp</t>
   </si>
 </sst>
 </file>
@@ -2906,34 +3211,34 @@
         <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I2" t="s">
         <v>130</v>
       </c>
       <c r="J2" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L2" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="M2" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2950,34 +3255,34 @@
         <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I3" t="s">
         <v>131</v>
       </c>
       <c r="J3" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L3" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2994,34 +3299,34 @@
         <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I4" t="s">
         <v>132</v>
       </c>
       <c r="J4" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L4" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="M4" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3038,34 +3343,34 @@
         <v>133</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I5" t="s">
         <v>133</v>
       </c>
       <c r="J5" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="K5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L5" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3082,34 +3387,34 @@
         <v>134</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I6" t="s">
         <v>134</v>
       </c>
       <c r="J6" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L6" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="M6" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3126,34 +3431,34 @@
         <v>135</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I7" t="s">
         <v>135</v>
       </c>
       <c r="J7" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L7" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="M7" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3170,34 +3475,34 @@
         <v>136</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I8" t="s">
         <v>136</v>
       </c>
       <c r="J8" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L8" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="M8" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3214,34 +3519,34 @@
         <v>137</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I9" t="s">
         <v>137</v>
       </c>
       <c r="J9" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="K9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L9" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="M9" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -3249,7 +3554,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
         <v>129</v>
@@ -3258,34 +3563,34 @@
         <v>138</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I10" t="s">
         <v>138</v>
       </c>
       <c r="J10" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="K10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L10" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="M10" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -3293,7 +3598,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
         <v>129</v>
@@ -3302,34 +3607,34 @@
         <v>139</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I11" t="s">
         <v>139</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L11" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="M11" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -3337,7 +3642,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
         <v>129</v>
@@ -3346,34 +3651,34 @@
         <v>140</v>
       </c>
       <c r="E12" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I12" t="s">
         <v>140</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="M12" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -3381,7 +3686,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
         <v>129</v>
@@ -3390,34 +3695,34 @@
         <v>141</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I13" t="s">
         <v>141</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="K13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="M13" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -3425,7 +3730,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
         <v>129</v>
@@ -3434,34 +3739,34 @@
         <v>142</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I14" t="s">
         <v>142</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="K14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="M14" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -3469,7 +3774,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
         <v>129</v>
@@ -3478,34 +3783,34 @@
         <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I15" t="s">
         <v>143</v>
       </c>
       <c r="J15" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="M15" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -3513,7 +3818,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
         <v>129</v>
@@ -3522,34 +3827,34 @@
         <v>144</v>
       </c>
       <c r="E16" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I16" t="s">
         <v>144</v>
       </c>
       <c r="J16" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="K16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L16" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="M16" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -3563,37 +3868,37 @@
         <v>129</v>
       </c>
       <c r="D17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
         <v>145</v>
       </c>
-      <c r="E17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F17" t="s">
-        <v>129</v>
-      </c>
-      <c r="G17" t="s">
-        <v>129</v>
-      </c>
-      <c r="H17" t="s">
-        <v>146</v>
-      </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J17" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="K17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="M17" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -3601,7 +3906,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C18" t="s">
         <v>129</v>
@@ -3610,34 +3915,34 @@
         <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I18" t="s">
         <v>130</v>
       </c>
       <c r="J18" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="K18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="M18" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3662,4 +3967,1185 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K3" t="s">
+        <v>224</v>
+      </c>
+      <c r="L3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" t="s">
+        <v>247</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J4" t="s">
+        <v>201</v>
+      </c>
+      <c r="K4" t="s">
+        <v>225</v>
+      </c>
+      <c r="L4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" t="s">
+        <v>247</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J5" t="s">
+        <v>202</v>
+      </c>
+      <c r="K5" t="s">
+        <v>226</v>
+      </c>
+      <c r="L5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" t="s">
+        <v>248</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>186</v>
+      </c>
+      <c r="J6" t="s">
+        <v>203</v>
+      </c>
+      <c r="K6" t="s">
+        <v>227</v>
+      </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" t="s">
+        <v>247</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" t="s">
+        <v>249</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>188</v>
+      </c>
+      <c r="J8" t="s">
+        <v>205</v>
+      </c>
+      <c r="K8" t="s">
+        <v>229</v>
+      </c>
+      <c r="L8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" t="s">
+        <v>250</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>189</v>
+      </c>
+      <c r="J9" t="s">
+        <v>206</v>
+      </c>
+      <c r="K9" t="s">
+        <v>230</v>
+      </c>
+      <c r="L9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" t="s">
+        <v>251</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>188</v>
+      </c>
+      <c r="J10" t="s">
+        <v>207</v>
+      </c>
+      <c r="K10" t="s">
+        <v>229</v>
+      </c>
+      <c r="L10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" t="s">
+        <v>252</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s">
+        <v>188</v>
+      </c>
+      <c r="J11" t="s">
+        <v>207</v>
+      </c>
+      <c r="K11" t="s">
+        <v>229</v>
+      </c>
+      <c r="L11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" t="s">
+        <v>252</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>185</v>
+      </c>
+      <c r="J12" t="s">
+        <v>208</v>
+      </c>
+      <c r="K12" t="s">
+        <v>231</v>
+      </c>
+      <c r="L12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" t="s">
+        <v>248</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" t="s">
+        <v>190</v>
+      </c>
+      <c r="J13" t="s">
+        <v>209</v>
+      </c>
+      <c r="K13" t="s">
+        <v>232</v>
+      </c>
+      <c r="L13" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" t="s">
+        <v>248</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" t="s">
+        <v>184</v>
+      </c>
+      <c r="J14" t="s">
+        <v>210</v>
+      </c>
+      <c r="K14" t="s">
+        <v>233</v>
+      </c>
+      <c r="L14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" t="s">
+        <v>253</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s">
+        <v>191</v>
+      </c>
+      <c r="J15" t="s">
+        <v>211</v>
+      </c>
+      <c r="K15" t="s">
+        <v>234</v>
+      </c>
+      <c r="L15" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" t="s">
+        <v>254</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>192</v>
+      </c>
+      <c r="J16" t="s">
+        <v>212</v>
+      </c>
+      <c r="K16" t="s">
+        <v>235</v>
+      </c>
+      <c r="L16" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" t="s">
+        <v>255</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" t="s">
+        <v>193</v>
+      </c>
+      <c r="J17" t="s">
+        <v>213</v>
+      </c>
+      <c r="K17" t="s">
+        <v>236</v>
+      </c>
+      <c r="L17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" t="s">
+        <v>256</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s">
+        <v>194</v>
+      </c>
+      <c r="J18" t="s">
+        <v>214</v>
+      </c>
+      <c r="K18" t="s">
+        <v>237</v>
+      </c>
+      <c r="L18" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" t="s">
+        <v>257</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>195</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" t="s">
+        <v>195</v>
+      </c>
+      <c r="J19" t="s">
+        <v>215</v>
+      </c>
+      <c r="K19" t="s">
+        <v>238</v>
+      </c>
+      <c r="L19" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" t="s">
+        <v>258</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" t="s">
+        <v>196</v>
+      </c>
+      <c r="J20" t="s">
+        <v>216</v>
+      </c>
+      <c r="K20" t="s">
+        <v>239</v>
+      </c>
+      <c r="L20" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" t="s">
+        <v>258</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" t="s">
+        <v>197</v>
+      </c>
+      <c r="J21" t="s">
+        <v>217</v>
+      </c>
+      <c r="K21" t="s">
+        <v>240</v>
+      </c>
+      <c r="L21" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" t="s">
+        <v>257</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>185</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" t="s">
+        <v>185</v>
+      </c>
+      <c r="J22" t="s">
+        <v>218</v>
+      </c>
+      <c r="K22" t="s">
+        <v>241</v>
+      </c>
+      <c r="L22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" t="s">
+        <v>248</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23" t="s">
+        <v>219</v>
+      </c>
+      <c r="K23" t="s">
+        <v>242</v>
+      </c>
+      <c r="L23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" t="s">
+        <v>259</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>199</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" t="s">
+        <v>199</v>
+      </c>
+      <c r="J24" t="s">
+        <v>220</v>
+      </c>
+      <c r="K24" t="s">
+        <v>243</v>
+      </c>
+      <c r="L24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" t="s">
+        <v>251</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" t="s">
+        <v>195</v>
+      </c>
+      <c r="J25" t="s">
+        <v>221</v>
+      </c>
+      <c r="K25" t="s">
+        <v>244</v>
+      </c>
+      <c r="L25" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" t="s">
+        <v>260</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" t="s">
+        <v>185</v>
+      </c>
+      <c r="J26" t="s">
+        <v>222</v>
+      </c>
+      <c r="K26" t="s">
+        <v>245</v>
+      </c>
+      <c r="L26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" t="s">
+        <v>257</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1"/>
+    <hyperlink ref="N3" r:id="rId2"/>
+    <hyperlink ref="N4" r:id="rId3"/>
+    <hyperlink ref="N5" r:id="rId4"/>
+    <hyperlink ref="N6" r:id="rId5"/>
+    <hyperlink ref="N7" r:id="rId6"/>
+    <hyperlink ref="N8" r:id="rId7"/>
+    <hyperlink ref="N9" r:id="rId8"/>
+    <hyperlink ref="N10" r:id="rId9"/>
+    <hyperlink ref="N11" r:id="rId10"/>
+    <hyperlink ref="N12" r:id="rId11"/>
+    <hyperlink ref="N13" r:id="rId12"/>
+    <hyperlink ref="N14" r:id="rId13"/>
+    <hyperlink ref="N15" r:id="rId14"/>
+    <hyperlink ref="N16" r:id="rId15"/>
+    <hyperlink ref="N17" r:id="rId16"/>
+    <hyperlink ref="N18" r:id="rId17"/>
+    <hyperlink ref="N19" r:id="rId18"/>
+    <hyperlink ref="N20" r:id="rId19"/>
+    <hyperlink ref="N21" r:id="rId20"/>
+    <hyperlink ref="N22" r:id="rId21"/>
+    <hyperlink ref="N23" r:id="rId22"/>
+    <hyperlink ref="N24" r:id="rId23"/>
+    <hyperlink ref="N25" r:id="rId24"/>
+    <hyperlink ref="N26" r:id="rId25"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -406,100 +406,104 @@
     <t>https://www.shine.com/jobs/javaj2ee-developers/tricon-infotech-pvt-ltd/10432939/</t>
   </si>
   <si>
+    <t>Manager - Java Development</t>
+  </si>
+  <si>
     <t>Testing Lead - PLM</t>
   </si>
   <si>
+    <t>Java Developers - Freshers</t>
+  </si>
+  <si>
+    <t>Java Developer</t>
+  </si>
+  <si>
+    <t>Java Internship Program - [Freshers]</t>
+  </si>
+  <si>
+    <t>SE Specialist - Java</t>
+  </si>
+  <si>
+    <t>Software Engr II</t>
+  </si>
+  <si>
+    <t>Java Freshers</t>
+  </si>
+  <si>
+    <t>Java Developers/Leads</t>
+  </si>
+  <si>
+    <t>JAVA DEVELOPER</t>
+  </si>
+  <si>
+    <t>Java Intern</t>
+  </si>
+  <si>
+    <t>Java / J2EE - Architecture</t>
+  </si>
+  <si>
     <t>Java with Elastic Search developer/ElK/Solr/8+ years/Urgent...</t>
   </si>
   <si>
-    <t>Java Developers - Freshers</t>
-  </si>
-  <si>
-    <t>Java Developer</t>
-  </si>
-  <si>
-    <t>Java Internship Program - [Freshers]</t>
-  </si>
-  <si>
-    <t>SE Specialist - Java</t>
-  </si>
-  <si>
-    <t>Software Engr II</t>
-  </si>
-  <si>
-    <t>Java Freshers</t>
-  </si>
-  <si>
-    <t>Java Developers/Leads</t>
-  </si>
-  <si>
-    <t>JAVA DEVELOPER</t>
-  </si>
-  <si>
-    <t>Java Intern</t>
-  </si>
-  <si>
-    <t>Java / J2EE - Architecture</t>
-  </si>
-  <si>
-    <t>Principal Software Engineer</t>
-  </si>
-  <si>
     <t>Tech Lead - Java Development</t>
   </si>
   <si>
-    <t>Manager - Java Development</t>
+    <t>Mgr, Engineering</t>
   </si>
   <si>
     <t>not provided</t>
   </si>
   <si>
+    <t>State Street</t>
+  </si>
+  <si>
     <t>Applied Materials Inc.</t>
   </si>
   <si>
+    <t>BigSpire Software</t>
+  </si>
+  <si>
+    <t>Varnaaz Technologies</t>
+  </si>
+  <si>
+    <t>Fennec Technologies</t>
+  </si>
+  <si>
+    <t>Société Générale</t>
+  </si>
+  <si>
+    <t>Honeywell</t>
+  </si>
+  <si>
+    <t>Chegus Infotech</t>
+  </si>
+  <si>
+    <t>Careator Technologies</t>
+  </si>
+  <si>
+    <t>CGI</t>
+  </si>
+  <si>
+    <t>InstaSafe</t>
+  </si>
+  <si>
+    <t>Zycus</t>
+  </si>
+  <si>
     <t>Flixmind infotech PVT LTD</t>
   </si>
   <si>
-    <t>BigSpire Software</t>
-  </si>
-  <si>
-    <t>Varnaaz Technologies</t>
-  </si>
-  <si>
-    <t>Fennec Technologies</t>
-  </si>
-  <si>
-    <t>Société Générale</t>
-  </si>
-  <si>
-    <t>Honeywell</t>
-  </si>
-  <si>
-    <t>Chegus Infotech</t>
-  </si>
-  <si>
-    <t>Careator Technologies</t>
-  </si>
-  <si>
-    <t>CGI</t>
-  </si>
-  <si>
-    <t>InstaSafe</t>
-  </si>
-  <si>
-    <t>Zycus</t>
-  </si>
-  <si>
-    <t>Shaw Academy</t>
-  </si>
-  <si>
-    <t>State Street</t>
-  </si>
-  <si>
     <t>Infosys Limited</t>
   </si>
   <si>
+    <t>Epsilon India</t>
+  </si>
+  <si>
     <t>Bengaluru, Karnataka</t>
+  </si>
+  <si>
+    <t>Java developer having 10+ experience in Java and UI Related Technologies.
+Be a hands-on developer and also be able to lead a small team including people.</t>
   </si>
   <si>
     <t>10+ Years of related Professional Experience.
@@ -507,73 +511,69 @@
 Hand-on experience in regression, functional and performance testing.</t>
   </si>
   <si>
+    <t>Skill Sets: Should have a good communication skills, knowledge in java programming.
+Qualifications: Any Degree with Computer Background.</t>
+  </si>
+  <si>
+    <t>Produce highly usable systems that are high performance, easy to maintain and engineered to meet business needs.
+Knowledge in business model VOIP/IPTV/Data.</t>
+  </si>
+  <si>
+    <t>Fennec Technologies offers 4-6 months Java Internship program for freshers and last semester students.
+Java (Core and advanced) and J2ee Projects.</t>
+  </si>
+  <si>
+    <t>SG GSC possesses in-depth understanding of the business processes and cutting-edge technologies across domains of Societe Generale’s diverse portfolio.</t>
+  </si>
+  <si>
+    <t>Design solutions to drive safe living and quality of life.
+Be part of a team that designs, develops and integrates highly complex software functions within…</t>
+  </si>
+  <si>
+    <t>Applicant should have knowledge in the following technical skills.
+Strong OO programming knowledge, ability to incorporate in practice various software design &amp;…</t>
+  </si>
+  <si>
+    <t>Mandatory Skills: java 1.8 or 8 version ,API ( REST or Web).
+Relevant Experience: java 1.8 or 8 version at least 2 to 3 years / API ( REST or Web) 2 to 4 years’…</t>
+  </si>
+  <si>
+    <t>CGI is hiring for JAVA Developer for Bangalore location.
+Primary skills-Java Spring/Spring boot, MVC, Angular/Full stack.
+Years of Experience- 3 yrs to 10 yrs.</t>
+  </si>
+  <si>
+    <t>At InstaSafe, we are revolutionising the information security industry by developing a state-of-the-art Security-as-a-Service platform making it simple and easy…</t>
+  </si>
+  <si>
+    <t>Headquartered in Princeton, U.S. in 1998, Zycus has grown every day to be established as an organization which now is a leading global provider of complete…</t>
+  </si>
+  <si>
     <t>8 + years of experience Mandatory.
 Experience in either SOLR/Java with ElasticSearch.
 Understanding about ‘keyword search’, natural language search’ and…</t>
   </si>
   <si>
-    <t>Skill Sets: Should have a good communication skills, knowledge in java programming.
-Qualifications: Any Degree with Computer Background.</t>
-  </si>
-  <si>
-    <t>Produce highly usable systems that are high performance, easy to maintain and engineered to meet business needs.
-Knowledge in business model VOIP/IPTV/Data.</t>
-  </si>
-  <si>
-    <t>Fennec Technologies offers 4-6 months Java Internship program for freshers and last semester students.
-Java (Core and advanced) and J2ee Projects.</t>
-  </si>
-  <si>
-    <t>SG GSC possesses in-depth understanding of the business processes and cutting-edge technologies across domains of Societe Generale’s diverse portfolio.</t>
-  </si>
-  <si>
-    <t>Design solutions to drive safe living and quality of life.
-Be part of a team that designs, develops and integrates highly complex software functions within…</t>
-  </si>
-  <si>
-    <t>Applicant should have knowledge in the following technical skills.
-Strong OO programming knowledge, ability to incorporate in practice various software design &amp;…</t>
-  </si>
-  <si>
-    <t>Mandatory Skills: java 1.8 or 8 version ,API ( REST or Web).
-Relevant Experience: java 1.8 or 8 version at least 2 to 3 years / API ( REST or Web) 2 to 4 years’…</t>
-  </si>
-  <si>
-    <t>CGI is hiring for JAVA Developer for Bangalore location.
-Primary skills-Java Spring/Spring boot, MVC, Angular/Full stack.
-Years of Experience- 3 yrs to 10 yrs.</t>
-  </si>
-  <si>
-    <t>At InstaSafe, we are revolutionising the information security industry by developing a state-of-the-art Security-as-a-Service platform making it simple and easy…</t>
-  </si>
-  <si>
-    <t>Headquartered in Princeton, U.S. in 1998, Zycus has grown every day to be established as an organization which now is a leading global provider of complete…</t>
-  </si>
-  <si>
-    <t>You will implement solutions that include database schema, business logic, and some presentation layer work.
-Independently investigate, present options, review…</t>
-  </si>
-  <si>
-    <t>Java developer having 4+ experience in Java programming.
-Developer having hands on experience on Core Java and J2EE frameWorks .</t>
-  </si>
-  <si>
     <t>Internal Title: Senior Systems Engineer.
 Skill(s): * Java, J2EE, Spring, Hibernate, Microservices.
 Location(s): Bangalore, *Bhubaneshwar, Chennai, Gurgaon,…</t>
   </si>
   <si>
-    <t>Java developer having 10+ experience in Java and UI Related Technologies.
-Be a hands-on developer and also be able to lead a small team including people.</t>
+    <t>Java developer having 4+ experience in Java programming.
+Developer having hands on experience on Core Java and J2EE frameWorks .</t>
+  </si>
+  <si>
+    <t>To know more about us, please visithttps://india.epsilon.com and follow us onFacebook,Twitter,LinkedIn, andInstagram.
+How did we get this far?</t>
   </si>
   <si>
     <t>Execute the design, analysis, or evaluation of assigned projects using sound engineering principles and adhering to business standards, practices, procedures,…</t>
   </si>
   <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BKwMOZH4fgpIIWSrlpgS0tSkW3tfilVH9rzQFVfnBGL0LF-9vo0acj_8Lu0aVcpXHtdaW6_IpPcunpDMWCAr8DuAQnlaBHKsAy5_wtA2o6QPdotmOPBSyPX7Fe0YQ2DJRmxj6urKrFbl0KLq0a0kz4Wv1UF9e4mq4XzZTx84FvpA9zGAgdu4bWSgRQZTfgH1o0fLlxiEuijA2GaICfMkp_PPt1-EFvpa6lTlWtNU6X2n8jRierWWANffTIEtDl_wYkqSRx5hUPRfsfK-w6VxpnI7MrbKo77bKudXzloI22VnLZtLnOaOaYi-Zh3w2dWOtaw4a43jhREPqzBGNkkZQ8Fb5em8Tmbjdauy_7HxKEGFn11RjyykT5AcGGDU5zAGnGas9U-kIwXCiKHsblWX9hT7PntPBDSsLd0XjK5IjKoA--oAUaArLzxLv1_nNGwfpv9RtSkVXwALKYUfleLtU5Vk-CLk07wTJFzuxWsDQICQ==&amp;p=0&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DUSa2A3jafxocHQLDLLcXuN9STuyedxbGwl68EprraMeRt-Kr1OZ76Ay3sNlYV_c_E0wSUL9FGidVgInl2aHuwzzONl0AaJfVvBaYyaUmeroBJSauCoaWpiCdMoHqLV7Yvvz7iikD_wnaON1WcnL9PUt5sAFEKqV9xkanQn4cd0xYjMOZttZPh8YxkIt0E2_80mvPNyobxTia7UlEWo6s3Pgv5ZkHkA0EtMenkD7ZRR7sAh6ysShebyTn3nlGQrbC8X3pSr9XYEhRPj3EzPaOu9oMUTCdduNBdlmXn3Of-sdaGqF9WDjhWxwg7mpVIVoQpPGJhdtAEDl4qnZS5Hs5tWHAUqk2FDqp7PdSZAkvLRovdZmY69YSK5dSrpNVTLvkD52CtG7qWWiNxrD49Ww_Oso8KpAmcwzvUtMS3oqG8j0FfS3KIo37c2gWlj6PA6KGKkkv1F_InVjhLHhc9SaiToz9MDcME3L819OQd-dw-Yi9dyv1mWM9i&amp;p=1&amp;fvj=1&amp;vjs=3</t>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DufbCI2HIYwgBtoz6kWO8JhBjFXIWlM4Ym8nprWE4ozyO6GilzqEnqA6v-WZbgr7lF5ZQ0BtGemWULP-NZHApiZTJZCMs8cbr1Anzw7yGWa9dXD-N9EyuxkaIKkgML_6oyr96PD_Jt3gABmvQQ0zyKGzwnO5ogPBVsG72wJ-n0tPq0pHveu0RJhb1FwU8Ng92k7BoShhVwr2XxQgvOb5ghBpphNY2q9MCK68mhMGupHwTi20AAckbJY5k10aNEXtzzndhnfq-T0m2h2C9AW6Zg5NX93tMrYlr3rM2bChmdeTWAmcnsMoZE-gAEDpFImlJGYXCqcpvDhYWN-V_Y2XT1tsXTdUD3fFbY7amDkFjekhXLUsdgVE9IUB83rd5wsD3L7ZZnsTNFMuvjn3QfAKwC3Jesv5W3RFL0D2ae8dLRLOA6l8husfwIquU8Do0W4KpW4SVrHGwUqMfGEhpz_aok1w4a5vY53Ivv_ny10XBXjwrhyaAVmo7reVRLpkrkuAEtDlPE4aJG1K36MFBR-64GBJDYJG3t0tw9lbJR4u3xkaTOI5ZXbMvdASdoi_wOzvMzquipZUih1sijwq5SWUCU2BrFrGwcKLc=&amp;p=0&amp;fvj=0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BKwMOZH4fgpIIWSrlpgS0tSkW3tfilVH9rzQFVfnBGL0LF-9vo0acj_8Lu0aVcpXHtdaW6_IpPcunpDMWCAr8DuAQnlaBHKsAy5_wtA2o6QPdotmOPBSyPX7Fe0YQ2DJRmxj6urKrFbl0KLq0a0kz4Wv1UF9e4mq7G8gEeroFoJPfMih88tPeVS5eYaxZ4SJiBP41oeLsMjv35ZX5qg3PQJ7NBtBivyLeUq9jte92rQX6-wAcAd77xC9fowYidxUhelIUuDGNszISUf3JhokRghM-imAijOsxii805-lLXEIGq9u2Ugtf3JE905nVqmuN3c0G--XkSnsyMopc6j8bj8pPN_cWjEZ1NnaJj84U87LybemzKvXuxYxm8JtxpGrSzBZUuRTzEr_XuhYtpx_4LZglQFZkE1HwLRufiPr2KNs7MnrU9TO-eNZmPesF0eEk5ATahO9dok0HGoK0nEG-nGhhKPaPWoGoXQSmg4D6HIA==&amp;p=1&amp;fvj=0&amp;vjs=3</t>
   </si>
   <si>
     <t>https://www.indeed.com/rc/clk?jk=9c41a3b220869182&amp;fccid=5c1cbf790497af17&amp;vjs=3</t>
@@ -606,19 +606,19 @@
     <t>https://www.indeed.com/rc/clk?jk=279c5ce5a28998f5&amp;fccid=58f19afcf811541a&amp;vjs=3</t>
   </si>
   <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0CNc4hWJXeDZ3ZXnFcr2J1Wj0e9JtA8O3MaJxzvzfN419lYGI_iL7OtM1wDMyM9EJMLM6uLeeRmphEyI68rn_vjL65ppqXMTcm-8FVcV-IumuN21HDg4hIaC2IZur0P--1q1Sn8mbFcSkEL7GA7ozXYe4lXcYUgv4KAGbRFV1k8C2f2Y-h61tjvtARhNAsVbFPjkBXLoM7JrcIr33jpoWglZsOiwdO38_D4fkV2zT8L_CnY6p5rPOsV-ImDGA3EdhBSrvpk437N8LZE9F-rjxJJrIuoTMcHJ9SxqGJmA3y6KsQ6Dqzmw_htRWJgC1zIscIqvmmIaPRtDDbEBZCw4tTdI0cBUpAngTzREUx4K7vp8MOUMPW3_CvaWlsvyMsN7S9BGyo-2A7HA0iVVBIPn97egFNV3VAsWsTaftS5QkQLZvLzO3aaR4iMrnX1VfyQ9eCGIaNAacgduY65qen3PCPj&amp;p=12&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DufbCI2HIYwgBtoz6kWO8JhBjFXIWlM4Ym8nprWE4ozyO6GilzqEnqA6v-WZbgr7lF5ZQ0BtGemSfXrO_EfUkIONh2N-KeDEoSx3Ic7AvaCPsptAtul6PitmVlzRUq-VrfR-1NuoBeyYyqj55yjpcJeViL6fuHAfCpSeoJgA7qT25drwJxGY-5HP5qJQH1vT4Y1mcofc6qwDesyu3shX9BEGLeg-jAlCd56-LMWhJlqswvDCkeE9trh4EQX6bOrai80WLZTeVrtBsmCel5SjMWjdVoYvoLZPK389tb4vyV9feRNNYwTIIJlpyaphHqgyj0aVpVXTfrlywou1fYQe1I7XciPzU3zuOv7yu_ZyIaJYoxHM5FnGQ9iLUlEKPrmJm8cEXrA_FsKgzezupXeOqwvwpuqW97KsWfzvVPTECY3pwKwUFUdaK1c9qghHduNeBvarXp5vwrXcwriMwu_3KnrKOf6TlPOcdUEuUJGTKZnohsNsl240LFMcXZGwXxuqGgWfjHyLoqsym1oNJ0Eg6Sew8Ems3D_5T0sM6o2smWzpdcesKzG-KxxvxZDIfES7SFeZbk6z6gXl5RdTpTOhEUfgGGkv9AlLo=&amp;p=13&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DFi1nmQQWK2fa3N4W3y7EUOEocZkWPqKP_f_xZ7ne8RUTCgxjAcFcNO0xqLvH83iiV9mHQf9kDK_xK06IcIYlUSkmnCph443TwffdBLyaC1gkZ-txSi65KXKu5nFLUxgHbHRrpoUff44QT1A8KyLhhh8OOu2B2O02Y67rfUn1WHJ0D44_lUdLU_D7JWKZWY4Qfl6RNhpHwQU4oycZbPA_o5z366Er6xxerOWHVUEBOxgwuSqGXKXlU8GcMLgMh9px5x_4VUx4Zm3rONvElTKvA6_lMmbIZapWud6D5bk7XECRy3c6iTkE_KG3Q5gDhgFqSlIApwjYLrjrccv7-n6RhgBzDuRV6gwXJSEhgLgMw72UYRPIvOUgC3LM4U9KCnYG4JM4PM-fr1ORjqXIDX1wuItnOOMhPBRgjEw5PZU15Z0vP2jCm1uqi3NkAaO4raZiloJ92UCfGKLTq6HPABmA9-Agdz1sk8BvAMwyAI7KeIiecp8SWPa5l07AYcecJ1QyYJ7gw7asPjfYmwHGPQFsuavgZWb2IX3VGtj425nv2yYGVWUMF9EqX9xuZo8ru_5NqXLyKNIPQ1LPYj0Q5Kz3Yp2sMNd_2oriB4CQcIze8pSIurhTAp51ER3CXBembZnTbCtkZD3DfUalGl_jtWgPT&amp;p=14&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DufbCI2HIYwgBtoz6kWO8JhBjFXIWlM4Ym8nprWE4ozyO6GilzqEnqA6v-WZbgr7lF5ZQ0BtGemWULP-NZHApiZTJZCMs8cbr1Anzw7yGWa9dXD-N9EyuxkaIKkgML_6oyr96PD_Jt3gABmvQQ0zyKGzwnO5ogPBV0c3QgS1bAeBqvarq05AfMFDd05k3pfJilNM8vtlbB4IoY9JPALnM62-9TaF5sZ-L3lHrjE5fOKQPUlZ71Gy9UO0KtJqluKH0ico-weF8cjK150A56U3LXw7GM-m0-PcUUBN2C9ykWHoim1BjqdBRyuA9cs--83bFOs0VXP7sC06ZLcbTx2uIU57JVNmBJhkWjuQvhsCMsa0SlNP4J-fh5UKNBVSbtqRB4J1LkXGAjFzrTGG8eYn4vgajLOT0s4sSgpzvUzZ6O86iAis_5JNPo6ou9kvKsvEuP9Z_aiMgtpY4WfNlthWtZP52uexbypVkA1aV9kUcQV5loS43kdCxMJ1gmt-01zj5keKsOL4rfCUzmQeVks91DSR5k5TqWABL7mnMBbP_aKv8IYDPzkNUFuWshGQeeg-PR67C58weT3Onkrys-qXLv8zYERXfpCqg=&amp;p=15&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BKwMOZH4fgpIIWSrlpgS0tSkW3tfilVH9rzQFVfnBGL0LF-9vo0acj_8Lu0aVcpXEecxr-cGbZe-ZtfwA35kWTEKKmsc2GXJ4fmaJw4BivFIXkvrntpE1A-MOJZIwbRTwczkqBbsVMqZKRvq5k9Yzpk9zfduTSHcdC86ycx7LGh_P2RB5YbWJdozgapF2xB0aai_BtOdS9mP-sZJrYrcPzRaC35GP_YE2pLznYQFvgxPgOtpENq_pkSes4tHrYQVTpRxWGs9utSA4IeoRH3iItkTn9_jSGx6o-ehv3dlVzOqqtFV27MvPvy_AWli3bELiqn0nttbp4kTK8Fe_0lTyOOFKI1c-Fq6Vwf85OChWMcmBpXSTilfWAQJZvbAPGlEsuiPgHU3dPpBRXl_NcUuDg4uYHsrWYN5kot8hVcCIyj9vDDS-EL96Kyn5ob3ZLB0ruGL_QK4OTeyXK3dyuoxlRtx9PRuu7O-I=&amp;p=16&amp;fvj=0&amp;vjs=3</t>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DUSa2A3jafxocHQLDLLcXuN9STuyedxbGwl68EprraMeRt-Kr1OZ76Ay3sNlYV_c_E0wSUL9FGidVgInl2aHuwzzONl0AaJfVvBaYyaUmeroBJSauCoaWpiCdMoHqLV7Yvvz7iikD_wnaON1WcnL9PUt5sAFEKqV9xkanQn4cd0xYjMOZttZPhgusF1XNrDgxzXDZbM2qVq2QIUDTcxc0zc_0-xJwYdFbO-Bphkg6i36H5vbb8sZGsHur0mlVUcOAyYXJ9SPDjSuWSmo1LnJ2L_h3XP9bSlKTai-nYwtDJy_x0SaXbQw8YoTkTLa8cXm9y5ZSw05cafjYq_nFiz2ENTIbXspJWrmT_tD_WphTe-VaD8Bxh33k6qesmZmBCnBXCL47NdAAn8yJKjGKGCrkLKmJye-W0FIPzEC1DPCrqJWEMyq-JUqRUzfnLaIjVi9lbGWyH-cwGwo40KhekgRiP_fdRcLuZC4M9nDNjXPEgV2iKeh4tj2yk&amp;p=12&amp;fvj=1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DFi1nmQQWK2fa3N4W3y7EUOEocZkWPqKP_f_xZ7ne8RUTCgxjAcFcNO0xqLvH83iiV9mHQf9kDK_xK06IcIYlUSkmnCph443TwffdBLyaC1gkZ-txSi65KXKu5nFLUxgHbHRrpoUff44QT1A8KyLhhh8OOu2B2O02Y67rfUn1WHJ0D44_lUdLUHhlMKJlKrr4YkTncfPNDUDpLLnKMIPQwv5vrrUqXHQqnVwZil_IXJdxi8w-lAa9Fb5JLNmeXgvKItBqo2uANGn9X22OgQXtK5Cxt8hzLFBiAqQVQ_LusaHDwtfRw5hKM15Vp6QbtnP1WWQU3GAvgSRCJsN8Nn9BAG_1dRyyW99OwX61XsFAYtbfreQjdYFm17K5r7ra5jYXtUaVt_YBPzSVtVgBrI-i8EE4EuVM5c1qsn3KG4vTVfGf6vZcoVIwVehyC5Agf-BMw1iaVDdg-OSpzl707Wqe1p2uiLE8d94KzgwXOh6HxKG3XnWTP-2NIob_JcOixZyAQJgL47_z_vzZHLwqblhMwnkFL-rXI1J0byTalFZc6bwP2lhVHTwHMg2sjAVk6o1YDufvyVezcB51lbY8frZayYxalK78ZJtkwpoutT3wD2l3BfPQgBhOsHV073KEqtlHicj1AHFd7in7gArgAiFwo&amp;p=13&amp;fvj=1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DufbCI2HIYwgBtoz6kWO8JhBjFXIWlM4Ym8nprWE4ozyO6GilzqEnqA6v-WZbgr7lF5ZQ0BtGemSfXrO_EfUkIONh2N-KeDEoSx3Ic7AvaCPsptAtul6PitmVlzRUq-VrfR-1NuoBeyYyqj55yjpcJeViL6fuHAfCvtwXfILhy1_UWwz011gmSeT8ssSWYKn0RxWIJ16Ns4zSrvlOzR8X7WHh6-5Qokln9soS1qqmbX8jClVyB-FE1tFzoePS28fdrMPA0pgzr9jzQGSRd-CGEOtbVpvqixlc0Mvc1TfpbH6vV8rRZQbx5hpj_a_Dgqw8yVKv9mnbKWP8cWy9ExnNkDmL_fIh1EXGicPmuvPQZFsAFNvnWsC5Myduyp3TzNoscR4te3O2yLQImdiLcqo7ldgU21iI6bfhLCKSih2egG7Dj7DxUwiEWhqyQxVFpB-l9ZIkHCSNgtGnaPwkyf7T9-1pYO1RAwnikha6AucxdWgL74CDvWMYVBgxVF9XxWzaFPxEBldv_IvD26l8HCQHQZy0R-LylCfHFFv1pTwOp_7gS6knds8NxFmhJPXBdOvQzhI2DK5PkI6g6uk4kobBz1IjBsr7hlxQ=&amp;p=14&amp;fvj=0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0D3zZ_ASCFyv4hXru9Ra-w9vKx6N-cVz9iFs_U0KKU9Ly96rTwWsyIpKfrmOmVujuNfJTBAhsdNY_jIyKm3lIRVv8EtwYiGhf-j_48lx9jAN-wkenRb2WLgANavC-k_MgplQQZBzVDJNEHaWKx44n47HgihpdlQkSJnYzAeNtt5RE4UGxMXRYBy-AXuM4UNvZJlp748_T9HBL0BfQm2eWYmfKkSN4fy-Qu26VpcoSyXRiGJIme6CgDBWoxAqb653VL8m0DBTa190QEYOa0rjvF4PqEkcQJiZxt44pgIqSckipZI3Nf8p_22V8kmzjNKRQjm1tDTI8T1SN8lUTa9Mcz9S8i6CQ1_V71UoDu9_B9QjqYehr6dXOP2pX_1linaURkGaSJlpyd7jX1PzYkX0i1RBpUUBa8pkwurYMsiVl58lA==&amp;p=15&amp;fvj=0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BKwMOZH4fgpIIWSrlpgS0tSkW3tfilVH9rzQFVfnBGL0LF-9vo0acj_8Lu0aVcpXEecxr-cGbZe-ZtfwA35kWTEKKmsc2GXJ4fmaJw4BivFIXkvrntpE1A-MOJZIwbRTwczkqBbsVMqZKRvq5k9Yzpk9zfduTSHcc02ym2Wyp-wbu1RcrY_klGaX0kz-Lqwyyfkk5EcE-Cw6-hK_G_a4AV-eiLdgLkcCeveOrXDlqB1mfP2Rbn0B0wRgW5orCxox3E78FHy1-JvRHhh-ML-u3vQ0X3EZ11N4tYIRRuWF5puPWLzDglSxNDRg9iOtrO_YJfWPqb2BsRWIe80WHggK_FDVelhAZuMv3lKQ_rQh6K4xxEZBW9Bdd-iQ6fKChrGItVRjHJFlsLZeIefLomS9dG--F3pI1bF80kPDX3uXQ8BB5Glfwe5GCN5E7SpObLbOfC_W6HahRmf-Mr8FRgVhZuiehu28iRNTY=&amp;p=16&amp;fvj=0&amp;vjs=3</t>
   </si>
   <si>
     <t>JAVA</t>
@@ -3774,7 +3774,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
         <v>129</v>
@@ -3818,13 +3818,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
         <v>129</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E16" t="s">
         <v>44</v>
@@ -3839,7 +3839,7 @@
         <v>145</v>
       </c>
       <c r="I16" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="J16" t="s">
         <v>44</v>
@@ -3868,7 +3868,7 @@
         <v>129</v>
       </c>
       <c r="D17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E17" t="s">
         <v>44</v>
@@ -3883,7 +3883,7 @@
         <v>145</v>
       </c>
       <c r="I17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J17" t="s">
         <v>44</v>
@@ -3912,7 +3912,7 @@
         <v>129</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E18" t="s">
         <v>44</v>
@@ -3927,7 +3927,7 @@
         <v>145</v>
       </c>
       <c r="I18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J18" t="s">
         <v>44</v>
@@ -4067,7 +4067,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
@@ -4111,7 +4111,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
@@ -4155,7 +4155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
@@ -4199,7 +4199,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
@@ -4243,7 +4243,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
@@ -4331,7 +4331,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
@@ -4375,7 +4375,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C10" t="s">
         <v>44</v>
@@ -4551,7 +4551,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C14" t="s">
         <v>44</v>
@@ -4639,7 +4639,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C16" t="s">
         <v>44</v>
@@ -4727,7 +4727,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" t="s">
         <v>44</v>
@@ -4771,7 +4771,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
@@ -4859,7 +4859,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C21" t="s">
         <v>44</v>
@@ -4903,7 +4903,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
@@ -4991,7 +4991,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C24" t="s">
         <v>44</v>
@@ -5079,7 +5079,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C26" t="s">
         <v>44</v>

--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="273">
   <si>
     <t>Job Title</t>
   </si>
@@ -406,115 +406,124 @@
     <t>https://www.shine.com/jobs/javaj2ee-developers/tricon-infotech-pvt-ltd/10432939/</t>
   </si>
   <si>
-    <t>Manager - Java Development</t>
-  </si>
-  <si>
-    <t>Testing Lead - PLM</t>
+    <t>Java with Elastic Search developer/ElK/Solr/8+ years/Urgent...</t>
+  </si>
+  <si>
+    <t>Java Developer</t>
   </si>
   <si>
     <t>Java Developers - Freshers</t>
   </si>
   <si>
-    <t>Java Developer</t>
+    <t>SE Specialist - Java</t>
+  </si>
+  <si>
+    <t>Java Freshers</t>
+  </si>
+  <si>
+    <t>Software Engr II</t>
   </si>
   <si>
     <t>Java Internship Program - [Freshers]</t>
   </si>
   <si>
-    <t>SE Specialist - Java</t>
-  </si>
-  <si>
-    <t>Software Engr II</t>
-  </si>
-  <si>
-    <t>Java Freshers</t>
+    <t>Java / J2EE - Architecture</t>
+  </si>
+  <si>
+    <t>JAVA DEVELOPER</t>
   </si>
   <si>
     <t>Java Developers/Leads</t>
   </si>
   <si>
-    <t>JAVA DEVELOPER</t>
-  </si>
-  <si>
-    <t>Java Intern</t>
-  </si>
-  <si>
-    <t>Java / J2EE - Architecture</t>
-  </si>
-  <si>
-    <t>Java with Elastic Search developer/ElK/Solr/8+ years/Urgent...</t>
-  </si>
-  <si>
-    <t>Tech Lead - Java Development</t>
-  </si>
-  <si>
-    <t>Mgr, Engineering</t>
+    <t>Elastic search developer / Solr developer/8+ years</t>
+  </si>
+  <si>
+    <t>Sterling OMS Consultant</t>
+  </si>
+  <si>
+    <t>Android Technical Trainer (Remote)</t>
+  </si>
+  <si>
+    <t>Java/Web development Internship for B.E/B.Tech (Pursuing stu...</t>
   </si>
   <si>
     <t>not provided</t>
   </si>
   <si>
-    <t>State Street</t>
+    <t>Flixmind infotech PVT LTD</t>
+  </si>
+  <si>
+    <t>Infosys Limited</t>
+  </si>
+  <si>
+    <t>BigSpire Software</t>
+  </si>
+  <si>
+    <t>Société Générale</t>
+  </si>
+  <si>
+    <t>Chegus Infotech</t>
+  </si>
+  <si>
+    <t>Honeywell</t>
+  </si>
+  <si>
+    <t>Varnaaz Technologies</t>
+  </si>
+  <si>
+    <t>Fennec Technologies</t>
+  </si>
+  <si>
+    <t>Keyfalcon Solutions</t>
+  </si>
+  <si>
+    <t>Zycus</t>
+  </si>
+  <si>
+    <t>CGI</t>
+  </si>
+  <si>
+    <t>Careator Technologies</t>
+  </si>
+  <si>
+    <t>Enhance IT</t>
+  </si>
+  <si>
+    <t>TechCiti Technologies Private Limited</t>
   </si>
   <si>
     <t>Applied Materials Inc.</t>
   </si>
   <si>
-    <t>BigSpire Software</t>
-  </si>
-  <si>
-    <t>Varnaaz Technologies</t>
-  </si>
-  <si>
-    <t>Fennec Technologies</t>
-  </si>
-  <si>
-    <t>Société Générale</t>
-  </si>
-  <si>
-    <t>Honeywell</t>
-  </si>
-  <si>
-    <t>Chegus Infotech</t>
-  </si>
-  <si>
-    <t>Careator Technologies</t>
-  </si>
-  <si>
-    <t>CGI</t>
-  </si>
-  <si>
-    <t>InstaSafe</t>
-  </si>
-  <si>
-    <t>Zycus</t>
-  </si>
-  <si>
-    <t>Flixmind infotech PVT LTD</t>
-  </si>
-  <si>
-    <t>Infosys Limited</t>
-  </si>
-  <si>
-    <t>Epsilon India</t>
-  </si>
-  <si>
     <t>Bengaluru, Karnataka</t>
   </si>
   <si>
-    <t>Java developer having 10+ experience in Java and UI Related Technologies.
-Be a hands-on developer and also be able to lead a small team including people.</t>
-  </si>
-  <si>
-    <t>10+ Years of related Professional Experience.
-Manage automation and manual testers.
-Hand-on experience in regression, functional and performance testing.</t>
+    <t>8 + years of experience Mandatory.
+Experience in either SOLR/Java with ElasticSearch.
+Understanding about ‘keyword search’, natural language search’ and…</t>
+  </si>
+  <si>
+    <t>Internal Title: Senior Systems Engineer.
+Skill(s): * Java, J2EE, Spring, Hibernate, Microservices.
+Location(s): Bangalore, *Bhubaneshwar, Chennai, Gurgaon,…</t>
   </si>
   <si>
     <t>Skill Sets: Should have a good communication skills, knowledge in java programming.
 Qualifications: Any Degree with Computer Background.</t>
   </si>
   <si>
+    <t>SG GSC possesses in-depth understanding of the business processes and cutting-edge technologies across domains of Societe Generale’s diverse portfolio.</t>
+  </si>
+  <si>
+    <t>Applicant should have knowledge in the following technical skills.
+Strong OO programming knowledge, ability to incorporate in practice various software design &amp;…</t>
+  </si>
+  <si>
+    <t>Design solutions to drive safe living and quality of life.
+Be part of a team that designs, develops and integrates highly complex software functions within…</t>
+  </si>
+  <si>
     <t>Produce highly usable systems that are high performance, easy to maintain and engineered to meet business needs.
 Knowledge in business model VOIP/IPTV/Data.</t>
   </si>
@@ -523,19 +532,10 @@
 Java (Core and advanced) and J2ee Projects.</t>
   </si>
   <si>
-    <t>SG GSC possesses in-depth understanding of the business processes and cutting-edge technologies across domains of Societe Generale’s diverse portfolio.</t>
-  </si>
-  <si>
-    <t>Design solutions to drive safe living and quality of life.
-Be part of a team that designs, develops and integrates highly complex software functions within…</t>
-  </si>
-  <si>
-    <t>Applicant should have knowledge in the following technical skills.
-Strong OO programming knowledge, ability to incorporate in practice various software design &amp;…</t>
-  </si>
-  <si>
-    <t>Mandatory Skills: java 1.8 or 8 version ,API ( REST or Web).
-Relevant Experience: java 1.8 or 8 version at least 2 to 3 years / API ( REST or Web) 2 to 4 years’…</t>
+    <t>7)Knows the business rules and concepts, software specifications and designs provided by the technical lead and apply them in completing the assigned task.</t>
+  </si>
+  <si>
+    <t>Headquartered in Princeton, U.S. in 1998, Zycus has grown every day to be established as an organization which now is a leading global provider of complete…</t>
   </si>
   <si>
     <t>CGI is hiring for JAVA Developer for Bangalore location.
@@ -543,82 +543,79 @@
 Years of Experience- 3 yrs to 10 yrs.</t>
   </si>
   <si>
-    <t>At InstaSafe, we are revolutionising the information security industry by developing a state-of-the-art Security-as-a-Service platform making it simple and easy…</t>
-  </si>
-  <si>
-    <t>Headquartered in Princeton, U.S. in 1998, Zycus has grown every day to be established as an organization which now is a leading global provider of complete…</t>
-  </si>
-  <si>
-    <t>8 + years of experience Mandatory.
-Experience in either SOLR/Java with ElasticSearch.
-Understanding about ‘keyword search’, natural language search’ and…</t>
-  </si>
-  <si>
-    <t>Internal Title: Senior Systems Engineer.
-Skill(s): * Java, J2EE, Spring, Hibernate, Microservices.
-Location(s): Bangalore, *Bhubaneshwar, Chennai, Gurgaon,…</t>
-  </si>
-  <si>
-    <t>Java developer having 4+ experience in Java programming.
-Developer having hands on experience on Core Java and J2EE frameWorks .</t>
-  </si>
-  <si>
-    <t>To know more about us, please visithttps://india.epsilon.com and follow us onFacebook,Twitter,LinkedIn, andInstagram.
-How did we get this far?</t>
+    <t>Mandatory Skills: java 1.8 or 8 version ,API ( REST or Web).
+Relevant Experience: java 1.8 or 8 version at least 2 to 3 years / API ( REST or Web) 2 to 4 years’…</t>
+  </si>
+  <si>
+    <t>8+ years of experience mandatory.
+Experience in either SOLR/ElasticSearch.
+Understanding about ‘keyword search’, natural language search’ and cognitive search.</t>
+  </si>
+  <si>
+    <t>\*\*Location of posting is driven by business requirements.
+External Role: Sterling OMS Consultant.
+Skill(s): * Sterling OMS, Sterling Commerce.</t>
+  </si>
+  <si>
+    <t>Our company is seeking to hire a top-level Android Technical Trainer to help coach, mentor and develop our Android technical consultants within our business.</t>
+  </si>
+  <si>
+    <t>We are providing Software development Internship with Training to all Pursuing Students.
+BE/BTECH* (CSE/ISE/ECE/IT/EEE) Pursuing Students (any batch).</t>
   </si>
   <si>
     <t>Execute the design, analysis, or evaluation of assigned projects using sound engineering principles and adhering to business standards, practices, procedures,…</t>
   </si>
   <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DufbCI2HIYwgBtoz6kWO8JhBjFXIWlM4Ym8nprWE4ozyO6GilzqEnqA6v-WZbgr7lF5ZQ0BtGemWULP-NZHApiZTJZCMs8cbr1Anzw7yGWa9dXD-N9EyuxkaIKkgML_6oyr96PD_Jt3gABmvQQ0zyKGzwnO5ogPBVsG72wJ-n0tPq0pHveu0RJhb1FwU8Ng92k7BoShhVwr2XxQgvOb5ghBpphNY2q9MCK68mhMGupHwTi20AAckbJY5k10aNEXtzzndhnfq-T0m2h2C9AW6Zg5NX93tMrYlr3rM2bChmdeTWAmcnsMoZE-gAEDpFImlJGYXCqcpvDhYWN-V_Y2XT1tsXTdUD3fFbY7amDkFjekhXLUsdgVE9IUB83rd5wsD3L7ZZnsTNFMuvjn3QfAKwC3Jesv5W3RFL0D2ae8dLRLOA6l8husfwIquU8Do0W4KpW4SVrHGwUqMfGEhpz_aok1w4a5vY53Ivv_ny10XBXjwrhyaAVmo7reVRLpkrkuAEtDlPE4aJG1K36MFBR-64GBJDYJG3t0tw9lbJR4u3xkaTOI5ZXbMvdASdoi_wOzvMzquipZUih1sijwq5SWUCU2BrFrGwcKLc=&amp;p=0&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BKwMOZH4fgpIIWSrlpgS0tSkW3tfilVH9rzQFVfnBGL0LF-9vo0acj_8Lu0aVcpXHtdaW6_IpPcunpDMWCAr8DuAQnlaBHKsAy5_wtA2o6QPdotmOPBSyPX7Fe0YQ2DJRmxj6urKrFbl0KLq0a0kz4Wv1UF9e4mq7G8gEeroFoJPfMih88tPeVS5eYaxZ4SJiBP41oeLsMjv35ZX5qg3PQJ7NBtBivyLeUq9jte92rQX6-wAcAd77xC9fowYidxUhelIUuDGNszISUf3JhokRghM-imAijOsxii805-lLXEIGq9u2Ugtf3JE905nVqmuN3c0G--XkSnsyMopc6j8bj8pPN_cWjEZ1NnaJj84U87LybemzKvXuxYxm8JtxpGrSzBZUuRTzEr_XuhYtpx_4LZglQFZkE1HwLRufiPr2KNs7MnrU9TO-eNZmPesF0eEk5ATahO9dok0HGoK0nEG-nGhhKPaPWoGoXQSmg4D6HIA==&amp;p=1&amp;fvj=0&amp;vjs=3</t>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DUSa2A3jafxocHQLDLLcXuN9STuyedxbGwl68EprraMeRt-Kr1OZ76Ay3sNlYV_c_E0wSUL9FGidVgInl2aHuwzzONl0AaJfVvBaYyaUmeroBJSauCoaWpiCdMoHqLV7Yvvz7iikD_wnaON1WcnL9PUt5sAFEKqV9xkanQn4cd00AHPR3yeMnrsbdvkgH_ePJMDsR8QcHmLNlyuOkaAXuyNWFVu1p0z-vXmwMZQysmQjio6m3M3GtWFhfRStOWQd2g3bZGqm8cgu6_97R_TMcuyt99XJJC_X8edhgRVD7MA-nrqZc6wAYBaXm653WYIOJ8wMVrOgl7rxbvJrL_twetpzvyUeocMZvkfpo_dp8zCM9naTLzSmIxyeENFkw-r73VVmcUoFfDDWkkIxRE3w4Y7OFCH1fTCEBkTerCDADwImeL8nV3mJkfOwKmiEjeESHPdxY-3dHQ1Awo10uHCcDnbvKfG8MSCQxo_0BFNayjDuOacQSn1yFE&amp;p=0&amp;fvj=1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DFi1nmQQWK2fa3N4W3y7EUOEocZkWPqKP_f_xZ7ne8RUTCgxjAcFcNO0xqLvH83iiV9mHQf9kDK_xK06IcIYlUSkmnCph443TwffdBLyaC1gkZ-txSi65KXKu5nFLUxgHbHRrpoUff44QT1A8KyLhhh8OOu2B2O02Y67rfUn1WHJ0D44_lUdLUsJ-rlB1DSQ5vZHp2yhG_cxomapM5YVYSuj6QfZTHhVILW4I7VjzFiFjD2PiPHeRiLApsevEe4UWgugMdErp6vXfj6P3_3lFCkffKFiFc0w-myT4z2bNCUhGKlyjIvvrIIKOFkX0KcrIpZib9jLaEaZX48LMO18-7ijmDjCgRBlGPi_IbKkg20gyKc2Bb0s-cZ-XQio0Awz1iyVWZSn_Zx4N4UQxcvjeqQ4XPkjka3HHp6rS6Vu-MHWfByHBR0JZVZ9RlqnRP7HeoWKFR8GIBFSBt8YYG0I8Ocno1QmCvDEl4ZHmSJVnG2quFD8OwkE-0aecQZPp6kQo-HZIhdpY8b_Q37sgmBxBFehViMY3mO2uoQjwrle7rPI4eYCbdY7-eK562EX26eUOWaawX54Vzujx0trXas7egVqLL7vIutYSa8J8nDArEQ0ZAQkEi3-bsTICDpaExmlA3Fq_SCerntG6tM3Llz2v3&amp;p=1&amp;fvj=1&amp;vjs=3</t>
   </si>
   <si>
     <t>https://www.indeed.com/rc/clk?jk=9c41a3b220869182&amp;fccid=5c1cbf790497af17&amp;vjs=3</t>
   </si>
   <si>
+    <t>https://www.indeed.com/rc/clk?jk=17f9f80feec2a48e&amp;fccid=df6948c9b8da6236&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=4a9798510f9f184e&amp;fccid=079b127d8fde03a2&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=b50bc2bdc6e79df1&amp;fccid=50208b5bf45ee3b8&amp;vjs=3</t>
+  </si>
+  <si>
     <t>https://www.indeed.com/company/Varnaaz-Technologies/jobs/Java-Developer-ce5238e175573cc5?fccid=48b0e1c553bfe209&amp;vjs=3</t>
   </si>
   <si>
     <t>https://www.indeed.com/rc/clk?jk=7721a250865666b9&amp;fccid=3c1bd4b28eeecdf9&amp;vjs=3</t>
   </si>
   <si>
-    <t>https://www.indeed.com/rc/clk?jk=17f9f80feec2a48e&amp;fccid=df6948c9b8da6236&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=b50bc2bdc6e79df1&amp;fccid=50208b5bf45ee3b8&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=4a9798510f9f184e&amp;fccid=079b127d8fde03a2&amp;vjs=3</t>
+    <t>https://www.indeed.com/rc/clk?jk=f139dcc18959cb77&amp;fccid=f0c1e70642253730&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=279c5ce5a28998f5&amp;fccid=58f19afcf811541a&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/company/CGI/jobs/Java-Developer-03ac8d0bbc71b077?fccid=211099cf537c10a2&amp;vjs=3</t>
   </si>
   <si>
     <t>https://www.indeed.com/rc/clk?jk=ac2600d958a9cf8c&amp;fccid=53676d5e93e90a6c&amp;vjs=3</t>
   </si>
   <si>
-    <t>https://www.indeed.com/company/CGI/jobs/Java-Developer-03ac8d0bbc71b077?fccid=211099cf537c10a2&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=ea77245eb661ce00&amp;fccid=07146ca99e348eca&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=279c5ce5a28998f5&amp;fccid=58f19afcf811541a&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DUSa2A3jafxocHQLDLLcXuN9STuyedxbGwl68EprraMeRt-Kr1OZ76Ay3sNlYV_c_E0wSUL9FGidVgInl2aHuwzzONl0AaJfVvBaYyaUmeroBJSauCoaWpiCdMoHqLV7Yvvz7iikD_wnaON1WcnL9PUt5sAFEKqV9xkanQn4cd0xYjMOZttZPhgusF1XNrDgxzXDZbM2qVq2QIUDTcxc0zc_0-xJwYdFbO-Bphkg6i36H5vbb8sZGsHur0mlVUcOAyYXJ9SPDjSuWSmo1LnJ2L_h3XP9bSlKTai-nYwtDJy_x0SaXbQw8YoTkTLa8cXm9y5ZSw05cafjYq_nFiz2ENTIbXspJWrmT_tD_WphTe-VaD8Bxh33k6qesmZmBCnBXCL47NdAAn8yJKjGKGCrkLKmJye-W0FIPzEC1DPCrqJWEMyq-JUqRUzfnLaIjVi9lbGWyH-cwGwo40KhekgRiP_fdRcLuZC4M9nDNjXPEgV2iKeh4tj2yk&amp;p=12&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DFi1nmQQWK2fa3N4W3y7EUOEocZkWPqKP_f_xZ7ne8RUTCgxjAcFcNO0xqLvH83iiV9mHQf9kDK_xK06IcIYlUSkmnCph443TwffdBLyaC1gkZ-txSi65KXKu5nFLUxgHbHRrpoUff44QT1A8KyLhhh8OOu2B2O02Y67rfUn1WHJ0D44_lUdLUHhlMKJlKrr4YkTncfPNDUDpLLnKMIPQwv5vrrUqXHQqnVwZil_IXJdxi8w-lAa9Fb5JLNmeXgvKItBqo2uANGn9X22OgQXtK5Cxt8hzLFBiAqQVQ_LusaHDwtfRw5hKM15Vp6QbtnP1WWQU3GAvgSRCJsN8Nn9BAG_1dRyyW99OwX61XsFAYtbfreQjdYFm17K5r7ra5jYXtUaVt_YBPzSVtVgBrI-i8EE4EuVM5c1qsn3KG4vTVfGf6vZcoVIwVehyC5Agf-BMw1iaVDdg-OSpzl707Wqe1p2uiLE8d94KzgwXOh6HxKG3XnWTP-2NIob_JcOixZyAQJgL47_z_vzZHLwqblhMwnkFL-rXI1J0byTalFZc6bwP2lhVHTwHMg2sjAVk6o1YDufvyVezcB51lbY8frZayYxalK78ZJtkwpoutT3wD2l3BfPQgBhOsHV073KEqtlHicj1AHFd7in7gArgAiFwo&amp;p=13&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DufbCI2HIYwgBtoz6kWO8JhBjFXIWlM4Ym8nprWE4ozyO6GilzqEnqA6v-WZbgr7lF5ZQ0BtGemSfXrO_EfUkIONh2N-KeDEoSx3Ic7AvaCPsptAtul6PitmVlzRUq-VrfR-1NuoBeyYyqj55yjpcJeViL6fuHAfCvtwXfILhy1_UWwz011gmSeT8ssSWYKn0RxWIJ16Ns4zSrvlOzR8X7WHh6-5Qokln9soS1qqmbX8jClVyB-FE1tFzoePS28fdrMPA0pgzr9jzQGSRd-CGEOtbVpvqixlc0Mvc1TfpbH6vV8rRZQbx5hpj_a_Dgqw8yVKv9mnbKWP8cWy9ExnNkDmL_fIh1EXGicPmuvPQZFsAFNvnWsC5Myduyp3TzNoscR4te3O2yLQImdiLcqo7ldgU21iI6bfhLCKSih2egG7Dj7DxUwiEWhqyQxVFpB-l9ZIkHCSNgtGnaPwkyf7T9-1pYO1RAwnikha6AucxdWgL74CDvWMYVBgxVF9XxWzaFPxEBldv_IvD26l8HCQHQZy0R-LylCfHFFv1pTwOp_7gS6knds8NxFmhJPXBdOvQzhI2DK5PkI6g6uk4kobBz1IjBsr7hlxQ=&amp;p=14&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0D3zZ_ASCFyv4hXru9Ra-w9vKx6N-cVz9iFs_U0KKU9Ly96rTwWsyIpKfrmOmVujuNfJTBAhsdNY_jIyKm3lIRVv8EtwYiGhf-j_48lx9jAN-wkenRb2WLgANavC-k_MgplQQZBzVDJNEHaWKx44n47HgihpdlQkSJnYzAeNtt5RE4UGxMXRYBy-AXuM4UNvZJlp748_T9HBL0BfQm2eWYmfKkSN4fy-Qu26VpcoSyXRiGJIme6CgDBWoxAqb653VL8m0DBTa190QEYOa0rjvF4PqEkcQJiZxt44pgIqSckipZI3Nf8p_22V8kmzjNKRQjm1tDTI8T1SN8lUTa9Mcz9S8i6CQ1_V71UoDu9_B9QjqYehr6dXOP2pX_1linaURkGaSJlpyd7jX1PzYkX0i1RBpUUBa8pkwurYMsiVl58lA==&amp;p=15&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BKwMOZH4fgpIIWSrlpgS0tSkW3tfilVH9rzQFVfnBGL0LF-9vo0acj_8Lu0aVcpXEecxr-cGbZe-ZtfwA35kWTEKKmsc2GXJ4fmaJw4BivFIXkvrntpE1A-MOJZIwbRTwczkqBbsVMqZKRvq5k9Yzpk9zfduTSHcc02ym2Wyp-wbu1RcrY_klGaX0kz-Lqwyyfkk5EcE-Cw6-hK_G_a4AV-eiLdgLkcCeveOrXDlqB1mfP2Rbn0B0wRgW5orCxox3E78FHy1-JvRHhh-ML-u3vQ0X3EZ11N4tYIRRuWF5puPWLzDglSxNDRg9iOtrO_YJfWPqb2BsRWIe80WHggK_FDVelhAZuMv3lKQ_rQh6K4xxEZBW9Bdd-iQ6fKChrGItVRjHJFlsLZeIefLomS9dG--F3pI1bF80kPDX3uXQ8BB5Glfwe5GCN5E7SpObLbOfC_W6HahRmf-Mr8FRgVhZuiehu28iRNTY=&amp;p=16&amp;fvj=0&amp;vjs=3</t>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DUSa2A3jafxocHQLDLLcXuN9STuyedxbGwl68EprraMeRt-Kr1OZ76EdBlC8qaoxOZQ3tdD2ll_rGaWXfhlOCaA0JsG2gJI1WriWS1SivLENJZqIego90pqqCPwhjVEIfN9iP47UACwUYFJWRf3N8QMMLXg8PGDV9DPjbFVW-zBewJ0k_-bHjXtTs_SMjX1oa6XvAGk_Iks8u_JFIAnWrmgdqerLNbNtj4pG9k7XZolW6wFdKnOJUUgiNcuN1s0x01fbksuaQvbZVStBe38OapQjsrCD81kE3ld5EZXWCdl3NauvxVr4YtV1Do8Dtca8gU1txMS6Ay1eQ-rJtntRg62pEmCOyfLZOaF2S2XHSiS2TWPfLJOWANfGuz4_pONsod232wNH3IwSVQ8ywIDcCzh0Y9pRvcVXahonCorkPHk6uQ7R0vBPbnyb1NTB1E3PANYwEuUEUTkGQInAoXYXh_AWjV-1oxlBNgtZAWHvGjUw==&amp;p=12&amp;fvj=1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DFi1nmQQWK2fa3N4W3y7EUOEocZkWPqKP_f_xZ7ne8RUTCgxjAcFcNO0xqLvH83ii8TaMDLZ5mXK0xjYQB534srE3M9xURWBXaXBF90w9mOcIRDOpJtZEtb6IbHOcT8twE_OSNY37tT-aUiOkvxEO8838r1FXjxqrJOYo7leUzKPgQw0X7WIp9IjPjfVErifLWNjxia9nxQ0tSyLDVgRgpQfpv1ix7QJRsaxA16aLqSS5rs_ADaFULIzCDZ6PFHRDRpzoN1rClk_IYzF9nkeFl5TO3rjW7NMOdPum9xmLoobYXp88H2Zh-scB-WMZcfRCGIqKADhP6H0NRDkTsFDld4g98EBvrWAorbNa68ewE7kiFZ_TreC12J990yR2Xt2v4ZmmWrp4p2fXgyIfPDoxchDHhjnsKuaTFtK5JdQREonKwPdnPVoPg6ABwOSh6v7rCW2TPtsc1OYXi6NlRURXulrOPPCatJCDHq_uIUjxoCpu-JZGbVn-HEIvfEh4-P16p6cPiZiOnBbJu8C9UpjjrM2zlSAyKy97t_f4E_PY1s-VgtGB39P8acA3j9ARJjl1nlnJvO_hHpdVs6WhwQ86RKlhRBX9WCpmDJ0TCII49GwAqxGKB_0_uCcSGkaeQv5cPSQSy1FndcK0rf5b0Cvwh&amp;p=13&amp;fvj=1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0D3X2jYd6ThPWMa4ZMO9gBG8KguSxH4ZmHDXBhH--UKQAfe108K6LSSR-QBF5EXpEIIL4l5GcQH8xR4ult3XWGAYdyBvb7339UwzUycQtimZ_4jBzp1OJ3y9XIw20yO3s211DH2u5-VghFY1b9JSXMe5QQ9QUjtWCxmhmrEfGsZDUfS30X-vYx7fjdss80LlPYQV2XXnOerbXeKoRrBEJ5OUyfi8RuaQu8rv8rBS2Y9EfeZ-mbN8qKGGwpxPGdoG9cVxoGoZOZg-mWxHGSXyk_uJRS0TMBNbqSjdXbGQuns_Bal48tCayPgHOT2v3-htz1m49stlAGnPKvzDYdXpmrfITx1NK3spqBwlboxcLHKa0Si1jH1koDg035yitqR0onfV_pntEhCAKTUFtMgkE3m_eeSuig9Lk_1jyMvC-M05bmM-e8RB2IxY7qe5rWyCnE5hCHnxVpEUw==&amp;p=14&amp;fvj=1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0C7zxegYuOm4p-Y3xpypINpn_zgkLsA0z_ct-Rdj5ZKKjlPUYi9cCrP0RuCbsIG7sFNQhnFlitvd80nRBokpAUPCjqDqDYQqmgaqwwtyUMNza_jtcVaOB55glsVKCQEhTJveDsoIGCcFSvXONDcHhb05wRBnwvY6GjHkD4RIxIoNCWLjHtOvCCyF_H1PN-BNj8bDEaLQasABs3YRYGtW-4_pwGCz7mgRYvpeZ7-kqoMnith29SvBmZc79h0GqdBbcqAhhPoNHrq-3oDP9F7p1djW5kwPdXeJyVodyvU9IwN6IP1m_QmHB74yQ-2HgBZoHSUVmYUQFB5sF252VOoF5Vc9lsDhYFO6q4lLA6yGuCONxiIib0Id1lmjcy0nBywKlX_5LjNLz3mHWZOARACXpXfmVJVmu48AHJbijnGXH0I2QxharyMFGqi5KhR8pv1JKKngumIv0yFllxDDJ7QKsx1ck_Qd5wZTSnZYPefrq0diGYTUaQzEhXB&amp;p=15&amp;fvj=1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BKwMOZH4fgpIIWSrlpgS0tSkW3tfilVH9rzQFVfnBGL0LF-9vo0acj_8Lu0aVcpXEecxr-cGbZe-ZtfwA35kWTEKKmsc2GXJ4fmaJw4BivFIXkvrntpE1A-MOJZIwbRTwczkqBbsVMqZKRvq5k9Yzpk9zfduTSHcfIpRQZFditJkNbCcgT6dkVq7_zp8CdOmkDGfkXZ2PnLfCwOokeHb1OJOxXg2m1A5ALV3PxneDnGs2IkcXTDO6lKByReRdw1xRnQXYZQpmhNHr91SzJvzGAuN_kzwxpaIDIqDYc-H8m0d-nnnmHCMjmQ5lPXdpwXOF4S4E28Cv1Fra21K7YhwUEyfthP733mjDHjcG1wRRXIte2HqiYoNIx4bhgcdoR6RvbeDAgHX_0XGIuQiiq-zU19uU1xSxdWzuKdtnNEb0s_lyHiqWgWizd9u7fLxz0JdXWU7Z54ARfBaGfULcK-OfY6oARYSSenbk=&amp;p=16&amp;fvj=0&amp;vjs=3</t>
   </si>
   <si>
     <t>JAVA</t>
@@ -3205,11 +3202,11 @@
         <v>114</v>
       </c>
       <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
         <v>129</v>
       </c>
-      <c r="D2" t="s">
-        <v>130</v>
-      </c>
       <c r="E2" t="s">
         <v>44</v>
       </c>
@@ -3220,17 +3217,17 @@
         <v>44</v>
       </c>
       <c r="H2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
         <v>145</v>
       </c>
-      <c r="I2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" t="s">
-        <v>146</v>
-      </c>
       <c r="L2" t="s">
         <v>44</v>
       </c>
@@ -3238,7 +3235,7 @@
         <v>44</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3249,10 +3246,10 @@
         <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
@@ -3264,16 +3261,16 @@
         <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L3" t="s">
         <v>44</v>
@@ -3282,7 +3279,7 @@
         <v>44</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3293,10 +3290,10 @@
         <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
         <v>44</v>
@@ -3308,16 +3305,16 @@
         <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J4" t="s">
         <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L4" t="s">
         <v>44</v>
@@ -3326,7 +3323,7 @@
         <v>44</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3337,10 +3334,10 @@
         <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
@@ -3352,16 +3349,16 @@
         <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J5" t="s">
         <v>44</v>
       </c>
       <c r="K5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L5" t="s">
         <v>44</v>
@@ -3370,7 +3367,7 @@
         <v>44</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3381,10 +3378,10 @@
         <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
         <v>44</v>
@@ -3396,16 +3393,16 @@
         <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J6" t="s">
         <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L6" t="s">
         <v>44</v>
@@ -3414,7 +3411,7 @@
         <v>44</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3425,10 +3422,10 @@
         <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
         <v>44</v>
@@ -3440,16 +3437,16 @@
         <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J7" t="s">
         <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L7" t="s">
         <v>44</v>
@@ -3458,7 +3455,7 @@
         <v>44</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3466,13 +3463,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
         <v>44</v>
@@ -3484,16 +3481,16 @@
         <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J8" t="s">
         <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L8" t="s">
         <v>44</v>
@@ -3502,7 +3499,7 @@
         <v>44</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3510,13 +3507,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" t="s">
         <v>44</v>
@@ -3528,16 +3525,16 @@
         <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J9" t="s">
         <v>44</v>
       </c>
       <c r="K9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L9" t="s">
         <v>44</v>
@@ -3546,7 +3543,7 @@
         <v>44</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -3554,13 +3551,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" t="s">
         <v>44</v>
@@ -3572,16 +3569,16 @@
         <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J10" t="s">
         <v>44</v>
       </c>
       <c r="K10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L10" t="s">
         <v>44</v>
@@ -3590,7 +3587,7 @@
         <v>44</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -3598,13 +3595,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
         <v>44</v>
@@ -3616,16 +3613,16 @@
         <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
         <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L11" t="s">
         <v>44</v>
@@ -3634,7 +3631,7 @@
         <v>44</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -3642,13 +3639,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E12" t="s">
         <v>44</v>
@@ -3660,16 +3657,16 @@
         <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
         <v>44</v>
       </c>
       <c r="K12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s">
         <v>44</v>
@@ -3678,7 +3675,7 @@
         <v>44</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -3686,13 +3683,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
         <v>44</v>
@@ -3704,16 +3701,16 @@
         <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J13" t="s">
         <v>44</v>
       </c>
       <c r="K13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s">
         <v>44</v>
@@ -3722,7 +3719,7 @@
         <v>44</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -3730,14 +3727,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" t="s">
         <v>129</v>
       </c>
-      <c r="D14" t="s">
-        <v>142</v>
-      </c>
       <c r="E14" t="s">
         <v>44</v>
       </c>
@@ -3748,16 +3745,16 @@
         <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I14" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s">
         <v>44</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s">
         <v>44</v>
@@ -3766,7 +3763,7 @@
         <v>44</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -3774,13 +3771,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
         <v>44</v>
@@ -3792,16 +3789,16 @@
         <v>44</v>
       </c>
       <c r="H15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
         <v>44</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L15" t="s">
         <v>44</v>
@@ -3810,7 +3807,7 @@
         <v>44</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -3818,13 +3815,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E16" t="s">
         <v>44</v>
@@ -3836,16 +3833,16 @@
         <v>44</v>
       </c>
       <c r="H16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="J16" t="s">
         <v>44</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
         <v>44</v>
@@ -3854,7 +3851,7 @@
         <v>44</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -3862,34 +3859,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" t="s">
         <v>128</v>
       </c>
-      <c r="C17" t="s">
-        <v>129</v>
-      </c>
       <c r="D17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
         <v>144</v>
       </c>
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" t="s">
-        <v>145</v>
-      </c>
       <c r="I17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J17" t="s">
         <v>44</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L17" t="s">
         <v>44</v>
@@ -3898,7 +3895,7 @@
         <v>44</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -3906,13 +3903,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E18" t="s">
         <v>44</v>
@@ -3924,16 +3921,16 @@
         <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I18" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="J18" t="s">
         <v>44</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s">
         <v>44</v>
@@ -3942,7 +3939,7 @@
         <v>44</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4023,13 +4020,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
@@ -4044,22 +4041,22 @@
         <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L2" t="s">
         <v>44</v>
       </c>
       <c r="M2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -4067,13 +4064,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
@@ -4088,22 +4085,22 @@
         <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L3" t="s">
         <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4111,13 +4108,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E4" t="s">
         <v>44</v>
@@ -4132,22 +4129,22 @@
         <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L4" t="s">
         <v>44</v>
       </c>
       <c r="M4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -4155,13 +4152,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
@@ -4176,22 +4173,22 @@
         <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L5" t="s">
         <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -4199,13 +4196,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E6" t="s">
         <v>44</v>
@@ -4220,22 +4217,22 @@
         <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L6" t="s">
         <v>44</v>
       </c>
       <c r="M6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -4243,13 +4240,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E7" t="s">
         <v>44</v>
@@ -4264,22 +4261,22 @@
         <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L7" t="s">
         <v>44</v>
       </c>
       <c r="M7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -4287,13 +4284,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
         <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E8" t="s">
         <v>44</v>
@@ -4308,22 +4305,22 @@
         <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L8" t="s">
         <v>44</v>
       </c>
       <c r="M8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -4331,13 +4328,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E9" t="s">
         <v>44</v>
@@ -4352,22 +4349,22 @@
         <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L9" t="s">
         <v>44</v>
       </c>
       <c r="M9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4375,13 +4372,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C10" t="s">
         <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E10" t="s">
         <v>44</v>
@@ -4396,22 +4393,22 @@
         <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L10" t="s">
         <v>44</v>
       </c>
       <c r="M10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4419,13 +4416,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
         <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E11" t="s">
         <v>44</v>
@@ -4440,22 +4437,22 @@
         <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L11" t="s">
         <v>44</v>
       </c>
       <c r="M11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -4463,13 +4460,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E12" t="s">
         <v>44</v>
@@ -4484,22 +4481,22 @@
         <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L12" t="s">
         <v>44</v>
       </c>
       <c r="M12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4507,13 +4504,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C13" t="s">
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E13" t="s">
         <v>44</v>
@@ -4528,22 +4525,22 @@
         <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L13" t="s">
         <v>44</v>
       </c>
       <c r="M13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -4551,13 +4548,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C14" t="s">
         <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E14" t="s">
         <v>44</v>
@@ -4572,22 +4569,22 @@
         <v>45</v>
       </c>
       <c r="I14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L14" t="s">
         <v>44</v>
       </c>
       <c r="M14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -4595,13 +4592,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C15" t="s">
         <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E15" t="s">
         <v>44</v>
@@ -4616,22 +4613,22 @@
         <v>45</v>
       </c>
       <c r="I15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L15" t="s">
         <v>44</v>
       </c>
       <c r="M15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -4639,13 +4636,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C16" t="s">
         <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E16" t="s">
         <v>44</v>
@@ -4660,22 +4657,22 @@
         <v>45</v>
       </c>
       <c r="I16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L16" t="s">
         <v>44</v>
       </c>
       <c r="M16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -4683,13 +4680,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C17" t="s">
         <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E17" t="s">
         <v>44</v>
@@ -4704,22 +4701,22 @@
         <v>45</v>
       </c>
       <c r="I17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L17" t="s">
         <v>44</v>
       </c>
       <c r="M17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -4727,13 +4724,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C18" t="s">
         <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E18" t="s">
         <v>44</v>
@@ -4748,22 +4745,22 @@
         <v>45</v>
       </c>
       <c r="I18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L18" t="s">
         <v>44</v>
       </c>
       <c r="M18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -4771,13 +4768,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E19" t="s">
         <v>44</v>
@@ -4792,22 +4789,22 @@
         <v>45</v>
       </c>
       <c r="I19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L19" t="s">
         <v>44</v>
       </c>
       <c r="M19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -4815,13 +4812,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E20" t="s">
         <v>44</v>
@@ -4836,22 +4833,22 @@
         <v>45</v>
       </c>
       <c r="I20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L20" t="s">
         <v>44</v>
       </c>
       <c r="M20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -4859,13 +4856,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C21" t="s">
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E21" t="s">
         <v>44</v>
@@ -4880,22 +4877,22 @@
         <v>45</v>
       </c>
       <c r="I21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L21" t="s">
         <v>44</v>
       </c>
       <c r="M21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -4903,13 +4900,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E22" t="s">
         <v>44</v>
@@ -4924,22 +4921,22 @@
         <v>45</v>
       </c>
       <c r="I22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L22" t="s">
         <v>44</v>
       </c>
       <c r="M22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -4947,13 +4944,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E23" t="s">
         <v>44</v>
@@ -4968,22 +4965,22 @@
         <v>45</v>
       </c>
       <c r="I23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s">
         <v>44</v>
       </c>
       <c r="M23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -4991,13 +4988,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C24" t="s">
         <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E24" t="s">
         <v>44</v>
@@ -5012,22 +5009,22 @@
         <v>45</v>
       </c>
       <c r="I24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s">
         <v>44</v>
       </c>
       <c r="M24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -5035,13 +5032,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C25" t="s">
         <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E25" t="s">
         <v>44</v>
@@ -5056,22 +5053,22 @@
         <v>45</v>
       </c>
       <c r="I25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s">
         <v>44</v>
       </c>
       <c r="M25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -5079,13 +5076,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C26" t="s">
         <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E26" t="s">
         <v>44</v>
@@ -5100,22 +5097,22 @@
         <v>45</v>
       </c>
       <c r="I26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s">
         <v>44</v>
       </c>
       <c r="M26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
